--- a/data-migration/xlsx_1900-/1911_Winter.xlsx
+++ b/data-migration/xlsx_1900-/1911_Winter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7411690F-A96B-4949-B02A-501E481BFF10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F9C039-216C-4B49-B141-53CD4E368B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3665,9 +3665,6 @@
     <t>vonschulthessrechberg_g</t>
   </si>
   <si>
-    <t>escher_a</t>
-  </si>
-  <si>
     <t>huber_m</t>
   </si>
   <si>
@@ -3746,9 +3743,6 @@
     <t>schulthess_w</t>
   </si>
   <si>
-    <t>nager _fr</t>
-  </si>
-  <si>
     <t>jung_c</t>
   </si>
   <si>
@@ -3810,6 +3804,12 @@
   </si>
   <si>
     <t>Prof</t>
+  </si>
+  <si>
+    <t>escher_a2</t>
+  </si>
+  <si>
+    <t>nager_fr</t>
   </si>
 </sst>
 </file>
@@ -4154,22 +4154,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N419"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C157" workbookViewId="0">
-      <selection activeCell="H179" sqref="H179"/>
+    <sheetView tabSelected="1" topLeftCell="F156" workbookViewId="0">
+      <selection activeCell="H168" sqref="H168"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="31.28515625" customWidth="1"/>
-    <col min="6" max="6" width="71.5703125" customWidth="1"/>
-    <col min="7" max="7" width="47.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="31.33203125" customWidth="1"/>
+    <col min="6" max="6" width="71.5546875" customWidth="1"/>
+    <col min="7" max="7" width="47.6640625" customWidth="1"/>
     <col min="8" max="8" width="33" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1911</v>
       </c>
@@ -4192,10 +4192,10 @@
         <v>1092</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1911</v>
       </c>
@@ -4218,10 +4218,10 @@
         <v>1090</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1911</v>
       </c>
@@ -4241,13 +4241,13 @@
         <v>836</v>
       </c>
       <c r="H3" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1911</v>
       </c>
@@ -4267,13 +4267,13 @@
         <v>837</v>
       </c>
       <c r="H4" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1911</v>
       </c>
@@ -4296,10 +4296,10 @@
         <v>1090</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1911</v>
       </c>
@@ -4319,16 +4319,16 @@
         <v>839</v>
       </c>
       <c r="H6" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="I6" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="J6" t="s">
         <v>1243</v>
       </c>
-      <c r="J6" t="s">
-        <v>1245</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1911</v>
       </c>
@@ -4351,13 +4351,13 @@
         <v>1092</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="J7" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1911</v>
       </c>
@@ -4380,10 +4380,10 @@
         <v>1093</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1911</v>
       </c>
@@ -4406,13 +4406,13 @@
         <v>1092</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="J9" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1911</v>
       </c>
@@ -4435,10 +4435,10 @@
         <v>1091</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1911</v>
       </c>
@@ -4461,10 +4461,10 @@
         <v>1091</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1911</v>
       </c>
@@ -4487,10 +4487,10 @@
         <v>1091</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1911</v>
       </c>
@@ -4513,10 +4513,10 @@
         <v>1209</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1911</v>
       </c>
@@ -4539,10 +4539,10 @@
         <v>1209</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1911</v>
       </c>
@@ -4565,10 +4565,10 @@
         <v>1094</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1911</v>
       </c>
@@ -4591,10 +4591,10 @@
         <v>1209</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1911</v>
       </c>
@@ -4617,10 +4617,10 @@
         <v>1209</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1911</v>
       </c>
@@ -4643,10 +4643,10 @@
         <v>1094</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1911</v>
       </c>
@@ -4669,10 +4669,10 @@
         <v>1094</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1911</v>
       </c>
@@ -4692,16 +4692,16 @@
         <v>850</v>
       </c>
       <c r="H20" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="I20" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="J20" t="s">
         <v>1243</v>
       </c>
-      <c r="J20" t="s">
-        <v>1245</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1911</v>
       </c>
@@ -4721,16 +4721,16 @@
         <v>851</v>
       </c>
       <c r="H21" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="I21" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="J21" t="s">
         <v>1243</v>
       </c>
-      <c r="J21" t="s">
-        <v>1245</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1911</v>
       </c>
@@ -4753,10 +4753,10 @@
         <v>1090</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1911</v>
       </c>
@@ -4776,16 +4776,16 @@
         <v>853</v>
       </c>
       <c r="H23" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="I23" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="J23" t="s">
         <v>1243</v>
       </c>
-      <c r="J23" t="s">
-        <v>1245</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1911</v>
       </c>
@@ -4808,13 +4808,13 @@
         <v>1092</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="J24" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1911</v>
       </c>
@@ -4837,10 +4837,10 @@
         <v>1091</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1911</v>
       </c>
@@ -4863,10 +4863,10 @@
         <v>1094</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1911</v>
       </c>
@@ -4889,10 +4889,10 @@
         <v>1094</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1911</v>
       </c>
@@ -4912,16 +4912,16 @@
         <v>855</v>
       </c>
       <c r="H28" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="I28" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="J28" t="s">
         <v>1243</v>
       </c>
-      <c r="J28" t="s">
-        <v>1245</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1911</v>
       </c>
@@ -4944,13 +4944,13 @@
         <v>1095</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="J29" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1911</v>
       </c>
@@ -4973,10 +4973,10 @@
         <v>1096</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1911</v>
       </c>
@@ -4999,10 +4999,10 @@
         <v>1096</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1911</v>
       </c>
@@ -5025,10 +5025,10 @@
         <v>1097</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1911</v>
       </c>
@@ -5051,10 +5051,10 @@
         <v>1098</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1911</v>
       </c>
@@ -5077,10 +5077,10 @@
         <v>1098</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1911</v>
       </c>
@@ -5103,10 +5103,10 @@
         <v>1099</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1911</v>
       </c>
@@ -5129,10 +5129,10 @@
         <v>1097</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1911</v>
       </c>
@@ -5155,10 +5155,10 @@
         <v>1097</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1911</v>
       </c>
@@ -5178,13 +5178,13 @@
         <v>865</v>
       </c>
       <c r="H38" t="s">
-        <v>1210</v>
+        <v>1257</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1911</v>
       </c>
@@ -5207,10 +5207,10 @@
         <v>1100</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1911</v>
       </c>
@@ -5227,16 +5227,16 @@
         <v>462</v>
       </c>
       <c r="G40" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="H40" t="s">
         <v>1101</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1911</v>
       </c>
@@ -5259,13 +5259,13 @@
         <v>1095</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="J41" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1911</v>
       </c>
@@ -5288,13 +5288,13 @@
         <v>1095</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="J42" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1911</v>
       </c>
@@ -5317,10 +5317,10 @@
         <v>1101</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1911</v>
       </c>
@@ -5343,13 +5343,13 @@
         <v>1095</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="J44" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1911</v>
       </c>
@@ -5372,10 +5372,10 @@
         <v>1101</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1911</v>
       </c>
@@ -5398,10 +5398,10 @@
         <v>1102</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1911</v>
       </c>
@@ -5424,10 +5424,10 @@
         <v>1102</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1911</v>
       </c>
@@ -5447,13 +5447,13 @@
         <v>874</v>
       </c>
       <c r="H48" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1911</v>
       </c>
@@ -5473,13 +5473,13 @@
         <v>875</v>
       </c>
       <c r="H49" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1911</v>
       </c>
@@ -5502,10 +5502,10 @@
         <v>1103</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1911</v>
       </c>
@@ -5528,10 +5528,10 @@
         <v>1103</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1911</v>
       </c>
@@ -5554,10 +5554,10 @@
         <v>1104</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1911</v>
       </c>
@@ -5580,10 +5580,10 @@
         <v>1105</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1911</v>
       </c>
@@ -5606,10 +5606,10 @@
         <v>1106</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1911</v>
       </c>
@@ -5632,10 +5632,10 @@
         <v>1107</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1911</v>
       </c>
@@ -5655,13 +5655,13 @@
         <v>877</v>
       </c>
       <c r="H56" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1911</v>
       </c>
@@ -5681,13 +5681,13 @@
         <v>853</v>
       </c>
       <c r="H57" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1911</v>
       </c>
@@ -5707,13 +5707,13 @@
         <v>882</v>
       </c>
       <c r="H58" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1911</v>
       </c>
@@ -5736,10 +5736,10 @@
         <v>1109</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1911</v>
       </c>
@@ -5759,13 +5759,13 @@
         <v>884</v>
       </c>
       <c r="H60" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1911</v>
       </c>
@@ -5785,13 +5785,13 @@
         <v>885</v>
       </c>
       <c r="H61" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1911</v>
       </c>
@@ -5814,10 +5814,10 @@
         <v>1111</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1911</v>
       </c>
@@ -5840,13 +5840,13 @@
         <v>1095</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="J63" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1911</v>
       </c>
@@ -5869,10 +5869,10 @@
         <v>1096</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1911</v>
       </c>
@@ -5895,10 +5895,10 @@
         <v>1097</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1911</v>
       </c>
@@ -5921,10 +5921,10 @@
         <v>1097</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1911</v>
       </c>
@@ -5947,10 +5947,10 @@
         <v>1098</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1911</v>
       </c>
@@ -5973,10 +5973,10 @@
         <v>1102</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1911</v>
       </c>
@@ -5996,13 +5996,13 @@
         <v>892</v>
       </c>
       <c r="H69" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1911</v>
       </c>
@@ -6025,10 +6025,10 @@
         <v>1107</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1911</v>
       </c>
@@ -6051,10 +6051,10 @@
         <v>1104</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1911</v>
       </c>
@@ -6077,10 +6077,10 @@
         <v>1104</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1911</v>
       </c>
@@ -6103,10 +6103,10 @@
         <v>1105</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1911</v>
       </c>
@@ -6129,10 +6129,10 @@
         <v>1106</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1911</v>
       </c>
@@ -6152,13 +6152,13 @@
         <v>896</v>
       </c>
       <c r="H75" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1911</v>
       </c>
@@ -6178,13 +6178,13 @@
         <v>884</v>
       </c>
       <c r="H76" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1911</v>
       </c>
@@ -6204,13 +6204,13 @@
         <v>897</v>
       </c>
       <c r="H77" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1911</v>
       </c>
@@ -6230,19 +6230,19 @@
         <v>898</v>
       </c>
       <c r="H78" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="K78" t="s">
         <v>1112</v>
       </c>
       <c r="L78" t="s">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1911</v>
       </c>
@@ -6265,10 +6265,10 @@
         <v>1113</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1911</v>
       </c>
@@ -6291,22 +6291,22 @@
         <v>1114</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="K80" t="s">
         <v>1115</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="M80" t="s">
         <v>1117</v>
       </c>
       <c r="N80" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1911</v>
       </c>
@@ -6332,10 +6332,10 @@
         <v>1114</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1911</v>
       </c>
@@ -6358,10 +6358,10 @@
         <v>1114</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1911</v>
       </c>
@@ -6384,10 +6384,10 @@
         <v>1115</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1911</v>
       </c>
@@ -6407,10 +6407,10 @@
         <v>1115</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1911</v>
       </c>
@@ -6433,10 +6433,10 @@
         <v>1115</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1911</v>
       </c>
@@ -6459,10 +6459,10 @@
         <v>1116</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>1911</v>
       </c>
@@ -6485,10 +6485,10 @@
         <v>1117</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1911</v>
       </c>
@@ -6508,13 +6508,13 @@
         <v>906</v>
       </c>
       <c r="H88" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>1911</v>
       </c>
@@ -6534,13 +6534,13 @@
         <v>907</v>
       </c>
       <c r="H89" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>1911</v>
       </c>
@@ -6563,10 +6563,10 @@
         <v>1118</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>1911</v>
       </c>
@@ -6589,10 +6589,10 @@
         <v>1118</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>1911</v>
       </c>
@@ -6615,10 +6615,10 @@
         <v>1118</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1911</v>
       </c>
@@ -6641,10 +6641,10 @@
         <v>1118</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1911</v>
       </c>
@@ -6667,10 +6667,10 @@
         <v>1118</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1911</v>
       </c>
@@ -6693,10 +6693,10 @@
         <v>1119</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1911</v>
       </c>
@@ -6719,10 +6719,10 @@
         <v>1119</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1911</v>
       </c>
@@ -6742,13 +6742,13 @@
         <v>912</v>
       </c>
       <c r="H97" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1911</v>
       </c>
@@ -6768,13 +6768,13 @@
         <v>913</v>
       </c>
       <c r="H98" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1911</v>
       </c>
@@ -6794,13 +6794,13 @@
         <v>914</v>
       </c>
       <c r="H99" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>1911</v>
       </c>
@@ -6820,13 +6820,13 @@
         <v>915</v>
       </c>
       <c r="H100" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1911</v>
       </c>
@@ -6849,10 +6849,10 @@
         <v>1120</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>1911</v>
       </c>
@@ -6875,10 +6875,10 @@
         <v>1120</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1911</v>
       </c>
@@ -6901,10 +6901,10 @@
         <v>1120</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>1911</v>
       </c>
@@ -6927,10 +6927,10 @@
         <v>1120</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>1911</v>
       </c>
@@ -6953,10 +6953,10 @@
         <v>1120</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>1911</v>
       </c>
@@ -6976,16 +6976,16 @@
         <v>920</v>
       </c>
       <c r="H106" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="J106" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>1911</v>
       </c>
@@ -7005,16 +7005,16 @@
         <v>921</v>
       </c>
       <c r="H107" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="J107" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>1911</v>
       </c>
@@ -7037,10 +7037,10 @@
         <v>1121</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>1911</v>
       </c>
@@ -7063,10 +7063,10 @@
         <v>1121</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>1911</v>
       </c>
@@ -7089,10 +7089,10 @@
         <v>1121</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>1911</v>
       </c>
@@ -7115,10 +7115,10 @@
         <v>1121</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>1911</v>
       </c>
@@ -7138,13 +7138,13 @@
         <v>926</v>
       </c>
       <c r="H112" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>1911</v>
       </c>
@@ -7164,13 +7164,13 @@
         <v>836</v>
       </c>
       <c r="H113" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>1911</v>
       </c>
@@ -7190,13 +7190,13 @@
         <v>836</v>
       </c>
       <c r="H114" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>1911</v>
       </c>
@@ -7216,13 +7216,13 @@
         <v>835</v>
       </c>
       <c r="H115" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>1911</v>
       </c>
@@ -7242,13 +7242,13 @@
         <v>835</v>
       </c>
       <c r="H116" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>1911</v>
       </c>
@@ -7268,13 +7268,13 @@
         <v>927</v>
       </c>
       <c r="H117" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>1911</v>
       </c>
@@ -7294,13 +7294,13 @@
         <v>928</v>
       </c>
       <c r="H118" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>1911</v>
       </c>
@@ -7323,10 +7323,10 @@
         <v>1122</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>1911</v>
       </c>
@@ -7349,10 +7349,10 @@
         <v>1123</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>1911</v>
       </c>
@@ -7375,10 +7375,10 @@
         <v>1123</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>1911</v>
       </c>
@@ -7401,10 +7401,10 @@
         <v>1124</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>1911</v>
       </c>
@@ -7427,10 +7427,10 @@
         <v>1124</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>1911</v>
       </c>
@@ -7453,10 +7453,10 @@
         <v>1124</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>1911</v>
       </c>
@@ -7476,13 +7476,13 @@
         <v>835</v>
       </c>
       <c r="H125" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>1911</v>
       </c>
@@ -7505,10 +7505,10 @@
         <v>1125</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>1911</v>
       </c>
@@ -7531,10 +7531,10 @@
         <v>1125</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>1911</v>
       </c>
@@ -7557,10 +7557,10 @@
         <v>1126</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>1911</v>
       </c>
@@ -7583,10 +7583,10 @@
         <v>1126</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>1911</v>
       </c>
@@ -7609,10 +7609,10 @@
         <v>1127</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>1911</v>
       </c>
@@ -7635,10 +7635,10 @@
         <v>1127</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>1911</v>
       </c>
@@ -7658,13 +7658,13 @@
         <v>936</v>
       </c>
       <c r="H132" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>1911</v>
       </c>
@@ -7684,19 +7684,19 @@
         <v>937</v>
       </c>
       <c r="H133" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="K133" t="s">
         <v>1128</v>
       </c>
       <c r="L133" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>1911</v>
       </c>
@@ -7716,13 +7716,13 @@
         <v>938</v>
       </c>
       <c r="H134" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>1911</v>
       </c>
@@ -7745,10 +7745,10 @@
         <v>1128</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>1911</v>
       </c>
@@ -7771,10 +7771,10 @@
         <v>1128</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>1911</v>
       </c>
@@ -7794,19 +7794,19 @@
         <v>835</v>
       </c>
       <c r="H137" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="K137" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="L137" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>1911</v>
       </c>
@@ -7826,19 +7826,19 @@
         <v>835</v>
       </c>
       <c r="H138" t="s">
+        <v>1234</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="K138" t="s">
         <v>1235</v>
       </c>
-      <c r="I138" s="1" t="s">
-        <v>1244</v>
-      </c>
-      <c r="K138" t="s">
-        <v>1236</v>
-      </c>
       <c r="L138" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>1911</v>
       </c>
@@ -7861,10 +7861,10 @@
         <v>1129</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>1911</v>
       </c>
@@ -7887,10 +7887,10 @@
         <v>1130</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>1911</v>
       </c>
@@ -7913,10 +7913,10 @@
         <v>1131</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>1911</v>
       </c>
@@ -7939,10 +7939,10 @@
         <v>1131</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>1911</v>
       </c>
@@ -7965,10 +7965,10 @@
         <v>1132</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>1911</v>
       </c>
@@ -7991,10 +7991,10 @@
         <v>1133</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>1911</v>
       </c>
@@ -8017,10 +8017,10 @@
         <v>1133</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>1911</v>
       </c>
@@ -8043,10 +8043,10 @@
         <v>1134</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>1911</v>
       </c>
@@ -8069,10 +8069,10 @@
         <v>1134</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>1911</v>
       </c>
@@ -8095,10 +8095,10 @@
         <v>1135</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>1911</v>
       </c>
@@ -8121,10 +8121,10 @@
         <v>1135</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>1911</v>
       </c>
@@ -8144,13 +8144,13 @@
         <v>945</v>
       </c>
       <c r="H150" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>1911</v>
       </c>
@@ -8170,13 +8170,13 @@
         <v>835</v>
       </c>
       <c r="H151" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>1911</v>
       </c>
@@ -8196,13 +8196,13 @@
         <v>946</v>
       </c>
       <c r="H152" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>1911</v>
       </c>
@@ -8225,10 +8225,10 @@
         <v>1136</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>1911</v>
       </c>
@@ -8251,10 +8251,10 @@
         <v>1136</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>1911</v>
       </c>
@@ -8277,10 +8277,10 @@
         <v>1137</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>1911</v>
       </c>
@@ -8303,10 +8303,10 @@
         <v>1137</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>1911</v>
       </c>
@@ -8326,13 +8326,13 @@
         <v>950</v>
       </c>
       <c r="H157" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>1911</v>
       </c>
@@ -8355,10 +8355,10 @@
         <v>1138</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>1911</v>
       </c>
@@ -8381,10 +8381,10 @@
         <v>1138</v>
       </c>
       <c r="I159" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>1911</v>
       </c>
@@ -8407,10 +8407,10 @@
         <v>1138</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>1911</v>
       </c>
@@ -8430,13 +8430,13 @@
         <v>835</v>
       </c>
       <c r="H161" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="I161" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>1911</v>
       </c>
@@ -8459,10 +8459,10 @@
         <v>1139</v>
       </c>
       <c r="I162" s="1" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>1911</v>
       </c>
@@ -8485,10 +8485,10 @@
         <v>1139</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>1911</v>
       </c>
@@ -8511,10 +8511,10 @@
         <v>1139</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>1911</v>
       </c>
@@ -8537,10 +8537,10 @@
         <v>1139</v>
       </c>
       <c r="I165" s="1" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>1911</v>
       </c>
@@ -8563,10 +8563,10 @@
         <v>1139</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>1911</v>
       </c>
@@ -8589,10 +8589,10 @@
         <v>1140</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>1911</v>
       </c>
@@ -8612,13 +8612,13 @@
         <v>954</v>
       </c>
       <c r="H168" t="s">
-        <v>1237</v>
+        <v>1258</v>
       </c>
       <c r="I168" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>1911</v>
       </c>
@@ -8638,13 +8638,13 @@
         <v>955</v>
       </c>
       <c r="H169" t="s">
-        <v>1237</v>
+        <v>1258</v>
       </c>
       <c r="I169" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>1911</v>
       </c>
@@ -8664,13 +8664,13 @@
         <v>836</v>
       </c>
       <c r="H170" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="I170" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>1911</v>
       </c>
@@ -8693,10 +8693,10 @@
         <v>1141</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>1258</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>1911</v>
       </c>
@@ -8719,10 +8719,10 @@
         <v>1141</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>1258</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>1911</v>
       </c>
@@ -8745,10 +8745,10 @@
         <v>1141</v>
       </c>
       <c r="I173" s="1" t="s">
-        <v>1258</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>1911</v>
       </c>
@@ -8771,10 +8771,10 @@
         <v>1142</v>
       </c>
       <c r="I174" s="1" t="s">
-        <v>1258</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>1911</v>
       </c>
@@ -8797,10 +8797,10 @@
         <v>1142</v>
       </c>
       <c r="I175" s="1" t="s">
-        <v>1258</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>1911</v>
       </c>
@@ -8823,10 +8823,10 @@
         <v>1142</v>
       </c>
       <c r="I176" s="1" t="s">
-        <v>1258</v>
-      </c>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>1911</v>
       </c>
@@ -8849,10 +8849,10 @@
         <v>1142</v>
       </c>
       <c r="I177" s="1" t="s">
-        <v>1258</v>
-      </c>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>1911</v>
       </c>
@@ -8872,13 +8872,13 @@
         <v>961</v>
       </c>
       <c r="H178" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="I178" s="1" t="s">
-        <v>1258</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>1911</v>
       </c>
@@ -8898,13 +8898,13 @@
         <v>892</v>
       </c>
       <c r="H179" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="I179" s="1" t="s">
-        <v>1258</v>
-      </c>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>1911</v>
       </c>
@@ -8927,10 +8927,10 @@
         <v>1143</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>1911</v>
       </c>
@@ -8953,10 +8953,10 @@
         <v>1143</v>
       </c>
       <c r="I181" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>1911</v>
       </c>
@@ -8979,10 +8979,10 @@
         <v>1143</v>
       </c>
       <c r="I182" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>1911</v>
       </c>
@@ -9005,10 +9005,10 @@
         <v>1143</v>
       </c>
       <c r="I183" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>1911</v>
       </c>
@@ -9031,10 +9031,10 @@
         <v>1139</v>
       </c>
       <c r="I184" s="1" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>1911</v>
       </c>
@@ -9057,10 +9057,10 @@
         <v>1144</v>
       </c>
       <c r="I185" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>1911</v>
       </c>
@@ -9083,10 +9083,10 @@
         <v>1145</v>
       </c>
       <c r="I186" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>1911</v>
       </c>
@@ -9109,10 +9109,10 @@
         <v>1145</v>
       </c>
       <c r="I187" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>1911</v>
       </c>
@@ -9135,10 +9135,10 @@
         <v>1145</v>
       </c>
       <c r="I188" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>1911</v>
       </c>
@@ -9161,10 +9161,10 @@
         <v>1144</v>
       </c>
       <c r="I189" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>1911</v>
       </c>
@@ -9187,10 +9187,10 @@
         <v>1144</v>
       </c>
       <c r="I190" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>1911</v>
       </c>
@@ -9213,13 +9213,13 @@
         <v>1146</v>
       </c>
       <c r="I191" s="1" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="J191" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>1911</v>
       </c>
@@ -9242,13 +9242,13 @@
         <v>1146</v>
       </c>
       <c r="I192" s="1" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="J192" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>1911</v>
       </c>
@@ -9271,13 +9271,13 @@
         <v>1146</v>
       </c>
       <c r="I193" s="1" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="J193" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>1911</v>
       </c>
@@ -9300,13 +9300,13 @@
         <v>1146</v>
       </c>
       <c r="I194" s="1" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="J194" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>1911</v>
       </c>
@@ -9329,13 +9329,13 @@
         <v>1146</v>
       </c>
       <c r="I195" s="1" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="J195" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>1911</v>
       </c>
@@ -9358,10 +9358,10 @@
         <v>1147</v>
       </c>
       <c r="I196" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>1911</v>
       </c>
@@ -9384,10 +9384,10 @@
         <v>1147</v>
       </c>
       <c r="I197" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>1911</v>
       </c>
@@ -9410,10 +9410,10 @@
         <v>1147</v>
       </c>
       <c r="I198" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>1911</v>
       </c>
@@ -9436,10 +9436,10 @@
         <v>1147</v>
       </c>
       <c r="I199" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>1911</v>
       </c>
@@ -9462,10 +9462,10 @@
         <v>1147</v>
       </c>
       <c r="I200" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>1911</v>
       </c>
@@ -9488,10 +9488,10 @@
         <v>1148</v>
       </c>
       <c r="I201" s="1" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>1911</v>
       </c>
@@ -9514,10 +9514,10 @@
         <v>1148</v>
       </c>
       <c r="I202" s="1" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>1911</v>
       </c>
@@ -9540,10 +9540,10 @@
         <v>1149</v>
       </c>
       <c r="I203" s="1" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>1911</v>
       </c>
@@ -9566,10 +9566,10 @@
         <v>1149</v>
       </c>
       <c r="I204" s="1" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>1911</v>
       </c>
@@ -9592,10 +9592,10 @@
         <v>1149</v>
       </c>
       <c r="I205" s="1" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>1911</v>
       </c>
@@ -9618,10 +9618,10 @@
         <v>1150</v>
       </c>
       <c r="I206" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>1911</v>
       </c>
@@ -9644,10 +9644,10 @@
         <v>1150</v>
       </c>
       <c r="I207" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>1911</v>
       </c>
@@ -9667,13 +9667,13 @@
         <v>983</v>
       </c>
       <c r="H208" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="I208" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>1911</v>
       </c>
@@ -9696,10 +9696,10 @@
         <v>1151</v>
       </c>
       <c r="I209" s="1" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>1911</v>
       </c>
@@ -9722,10 +9722,10 @@
         <v>1150</v>
       </c>
       <c r="I210" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>1911</v>
       </c>
@@ -9748,10 +9748,10 @@
         <v>1151</v>
       </c>
       <c r="I211" s="1" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>1911</v>
       </c>
@@ -9774,10 +9774,10 @@
         <v>1150</v>
       </c>
       <c r="I212" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>1911</v>
       </c>
@@ -9797,13 +9797,13 @@
         <v>986</v>
       </c>
       <c r="H213" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="I213" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>1911</v>
       </c>
@@ -9826,10 +9826,10 @@
         <v>1152</v>
       </c>
       <c r="I214" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>1911</v>
       </c>
@@ -9852,10 +9852,10 @@
         <v>1152</v>
       </c>
       <c r="I215" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>1911</v>
       </c>
@@ -9878,10 +9878,10 @@
         <v>1103</v>
       </c>
       <c r="I216" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>1911</v>
       </c>
@@ -9901,13 +9901,13 @@
         <v>988</v>
       </c>
       <c r="H217" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="I217" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>1911</v>
       </c>
@@ -9927,13 +9927,13 @@
         <v>953</v>
       </c>
       <c r="H218" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="I218" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>1911</v>
       </c>
@@ -9956,10 +9956,10 @@
         <v>1103</v>
       </c>
       <c r="I219" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>1911</v>
       </c>
@@ -9982,10 +9982,10 @@
         <v>1103</v>
       </c>
       <c r="I220" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>1911</v>
       </c>
@@ -10008,10 +10008,10 @@
         <v>1103</v>
       </c>
       <c r="I221" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>1911</v>
       </c>
@@ -10031,13 +10031,13 @@
         <v>835</v>
       </c>
       <c r="H222" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="I222" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>1911</v>
       </c>
@@ -10057,13 +10057,13 @@
         <v>875</v>
       </c>
       <c r="H223" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="I223" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>1911</v>
       </c>
@@ -10086,10 +10086,10 @@
         <v>1150</v>
       </c>
       <c r="I224" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>1911</v>
       </c>
@@ -10109,13 +10109,13 @@
         <v>991</v>
       </c>
       <c r="H225" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="I225" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>1911</v>
       </c>
@@ -10138,10 +10138,10 @@
         <v>1151</v>
       </c>
       <c r="I226" s="1" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>1911</v>
       </c>
@@ -10164,10 +10164,10 @@
         <v>1152</v>
       </c>
       <c r="I227" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>1911</v>
       </c>
@@ -10190,10 +10190,10 @@
         <v>1153</v>
       </c>
       <c r="I228" s="1" t="s">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>1911</v>
       </c>
@@ -10216,10 +10216,10 @@
         <v>1153</v>
       </c>
       <c r="I229" s="1" t="s">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>1911</v>
       </c>
@@ -10242,10 +10242,10 @@
         <v>1153</v>
       </c>
       <c r="I230" s="1" t="s">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>1911</v>
       </c>
@@ -10268,10 +10268,10 @@
         <v>1153</v>
       </c>
       <c r="I231" s="1" t="s">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>1911</v>
       </c>
@@ -10294,10 +10294,10 @@
         <v>1153</v>
       </c>
       <c r="I232" s="1" t="s">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>1911</v>
       </c>
@@ -10320,10 +10320,10 @@
         <v>1153</v>
       </c>
       <c r="I233" s="1" t="s">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>1911</v>
       </c>
@@ -10346,10 +10346,10 @@
         <v>1090</v>
       </c>
       <c r="I234" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>1911</v>
       </c>
@@ -10369,13 +10369,13 @@
         <v>945</v>
       </c>
       <c r="H235" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="I235" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>1911</v>
       </c>
@@ -10398,10 +10398,10 @@
         <v>1154</v>
       </c>
       <c r="I236" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>1911</v>
       </c>
@@ -10424,10 +10424,10 @@
         <v>1154</v>
       </c>
       <c r="I237" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>1911</v>
       </c>
@@ -10450,10 +10450,10 @@
         <v>1155</v>
       </c>
       <c r="I238" s="1" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>1911</v>
       </c>
@@ -10476,10 +10476,10 @@
         <v>1156</v>
       </c>
       <c r="I239" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>1911</v>
       </c>
@@ -10499,13 +10499,13 @@
         <v>1002</v>
       </c>
       <c r="H240" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="I240" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>1911</v>
       </c>
@@ -10528,10 +10528,10 @@
         <v>1157</v>
       </c>
       <c r="I241" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>1911</v>
       </c>
@@ -10554,10 +10554,10 @@
         <v>1157</v>
       </c>
       <c r="I242" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>1911</v>
       </c>
@@ -10580,10 +10580,10 @@
         <v>1157</v>
       </c>
       <c r="I243" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>1911</v>
       </c>
@@ -10606,10 +10606,10 @@
         <v>1155</v>
       </c>
       <c r="I244" s="1" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>1911</v>
       </c>
@@ -10632,10 +10632,10 @@
         <v>1155</v>
       </c>
       <c r="I245" s="1" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>1911</v>
       </c>
@@ -10655,13 +10655,13 @@
         <v>935</v>
       </c>
       <c r="H246" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="I246" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>1911</v>
       </c>
@@ -10681,13 +10681,13 @@
         <v>1006</v>
       </c>
       <c r="H247" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="I247" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>1911</v>
       </c>
@@ -10707,13 +10707,13 @@
         <v>1007</v>
       </c>
       <c r="H248" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="I248" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>1911</v>
       </c>
@@ -10733,13 +10733,13 @@
         <v>1004</v>
       </c>
       <c r="H249" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="I249" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>1911</v>
       </c>
@@ -10762,10 +10762,10 @@
         <v>1156</v>
       </c>
       <c r="I250" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>1911</v>
       </c>
@@ -10788,10 +10788,10 @@
         <v>1159</v>
       </c>
       <c r="I251" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>1911</v>
       </c>
@@ -10814,10 +10814,10 @@
         <v>1159</v>
       </c>
       <c r="I252" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>1911</v>
       </c>
@@ -10840,10 +10840,10 @@
         <v>1156</v>
       </c>
       <c r="I253" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>1911</v>
       </c>
@@ -10863,13 +10863,13 @@
         <v>982</v>
       </c>
       <c r="H254" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="I254" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>1911</v>
       </c>
@@ -10889,13 +10889,13 @@
         <v>1009</v>
       </c>
       <c r="H255" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="I255" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>1911</v>
       </c>
@@ -10915,13 +10915,13 @@
         <v>836</v>
       </c>
       <c r="H256" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="I256" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>1911</v>
       </c>
@@ -10944,10 +10944,10 @@
         <v>1156</v>
       </c>
       <c r="I257" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>1911</v>
       </c>
@@ -10970,10 +10970,10 @@
         <v>1160</v>
       </c>
       <c r="I258" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>1911</v>
       </c>
@@ -10996,10 +10996,10 @@
         <v>1108</v>
       </c>
       <c r="I259" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>1911</v>
       </c>
@@ -11022,10 +11022,10 @@
         <v>1108</v>
       </c>
       <c r="I260" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>1911</v>
       </c>
@@ -11048,10 +11048,10 @@
         <v>1108</v>
       </c>
       <c r="I261" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>1911</v>
       </c>
@@ -11074,10 +11074,10 @@
         <v>1108</v>
       </c>
       <c r="I262" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>1911</v>
       </c>
@@ -11097,13 +11097,13 @@
         <v>1014</v>
       </c>
       <c r="H263" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="I263" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>1911</v>
       </c>
@@ -11123,13 +11123,13 @@
         <v>1015</v>
       </c>
       <c r="H264" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="I264" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>1911</v>
       </c>
@@ -11149,13 +11149,13 @@
         <v>1016</v>
       </c>
       <c r="H265" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="I265" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>1911</v>
       </c>
@@ -11175,13 +11175,13 @@
         <v>1017</v>
       </c>
       <c r="H266" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="I266" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>1911</v>
       </c>
@@ -11201,13 +11201,13 @@
         <v>1018</v>
       </c>
       <c r="H267" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="I267" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>1911</v>
       </c>
@@ -11230,10 +11230,10 @@
         <v>1110</v>
       </c>
       <c r="I268" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>1911</v>
       </c>
@@ -11256,10 +11256,10 @@
         <v>1110</v>
       </c>
       <c r="I269" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>1911</v>
       </c>
@@ -11282,10 +11282,10 @@
         <v>1110</v>
       </c>
       <c r="I270" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>1911</v>
       </c>
@@ -11308,10 +11308,10 @@
         <v>1161</v>
       </c>
       <c r="I271" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>1911</v>
       </c>
@@ -11334,10 +11334,10 @@
         <v>1161</v>
       </c>
       <c r="I272" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>1911</v>
       </c>
@@ -11357,13 +11357,13 @@
         <v>1020</v>
       </c>
       <c r="H273" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="I273" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>1911</v>
       </c>
@@ -11383,13 +11383,13 @@
         <v>890</v>
       </c>
       <c r="H274" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="I274" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>1911</v>
       </c>
@@ -11412,10 +11412,10 @@
         <v>1162</v>
       </c>
       <c r="I275" s="1" t="s">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>1911</v>
       </c>
@@ -11438,10 +11438,10 @@
         <v>1108</v>
       </c>
       <c r="I276" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>1911</v>
       </c>
@@ -11464,10 +11464,10 @@
         <v>1108</v>
       </c>
       <c r="I277" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>1911</v>
       </c>
@@ -11487,13 +11487,13 @@
         <v>1023</v>
       </c>
       <c r="H278" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="I278" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>1911</v>
       </c>
@@ -11513,13 +11513,13 @@
         <v>1024</v>
       </c>
       <c r="H279" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="I279" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>1911</v>
       </c>
@@ -11545,10 +11545,10 @@
         <v>1163</v>
       </c>
       <c r="I280" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>1911</v>
       </c>
@@ -11571,10 +11571,10 @@
         <v>1163</v>
       </c>
       <c r="I281" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>1911</v>
       </c>
@@ -11600,10 +11600,10 @@
         <v>1163</v>
       </c>
       <c r="I282" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>1911</v>
       </c>
@@ -11623,13 +11623,13 @@
         <v>1026</v>
       </c>
       <c r="H283" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="I283" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>1911</v>
       </c>
@@ -11652,10 +11652,10 @@
         <v>1163</v>
       </c>
       <c r="I284" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>1911</v>
       </c>
@@ -11678,10 +11678,10 @@
         <v>1163</v>
       </c>
       <c r="I285" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>1911</v>
       </c>
@@ -11704,13 +11704,13 @@
         <v>1167</v>
       </c>
       <c r="I286" s="1" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="J286" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>1911</v>
       </c>
@@ -11733,13 +11733,13 @@
         <v>1167</v>
       </c>
       <c r="I287" s="1" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="J287" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>1911</v>
       </c>
@@ -11762,13 +11762,13 @@
         <v>1167</v>
       </c>
       <c r="I288" s="1" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="J288" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>1911</v>
       </c>
@@ -11791,10 +11791,10 @@
         <v>1164</v>
       </c>
       <c r="I289" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>1911</v>
       </c>
@@ -11817,10 +11817,10 @@
         <v>1164</v>
       </c>
       <c r="I290" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>1911</v>
       </c>
@@ -11843,10 +11843,10 @@
         <v>1165</v>
       </c>
       <c r="I291" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>1911</v>
       </c>
@@ -11869,10 +11869,10 @@
         <v>1165</v>
       </c>
       <c r="I292" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>1911</v>
       </c>
@@ -11895,10 +11895,10 @@
         <v>1165</v>
       </c>
       <c r="I293" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>1911</v>
       </c>
@@ -11921,10 +11921,10 @@
         <v>1166</v>
       </c>
       <c r="I294" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>1911</v>
       </c>
@@ -11947,13 +11947,13 @@
         <v>1167</v>
       </c>
       <c r="I295" s="1" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="J295" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>1911</v>
       </c>
@@ -11976,10 +11976,10 @@
         <v>1165</v>
       </c>
       <c r="I296" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>1911</v>
       </c>
@@ -12002,10 +12002,10 @@
         <v>1168</v>
       </c>
       <c r="I297" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>1911</v>
       </c>
@@ -12028,10 +12028,10 @@
         <v>1169</v>
       </c>
       <c r="I298" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>1911</v>
       </c>
@@ -12051,13 +12051,13 @@
         <v>1035</v>
       </c>
       <c r="H299" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="I299" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>1911</v>
       </c>
@@ -12077,13 +12077,13 @@
         <v>1036</v>
       </c>
       <c r="H300" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="I300" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>1911</v>
       </c>
@@ -12103,13 +12103,13 @@
         <v>1037</v>
       </c>
       <c r="H301" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="I301" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>1911</v>
       </c>
@@ -12132,10 +12132,10 @@
         <v>1170</v>
       </c>
       <c r="I302" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>1911</v>
       </c>
@@ -12155,13 +12155,13 @@
         <v>1038</v>
       </c>
       <c r="H303" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="I303" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>1911</v>
       </c>
@@ -12181,13 +12181,13 @@
         <v>836</v>
       </c>
       <c r="H304" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="I304" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>1911</v>
       </c>
@@ -12210,10 +12210,10 @@
         <v>1168</v>
       </c>
       <c r="I305" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>1911</v>
       </c>
@@ -12236,10 +12236,10 @@
         <v>1168</v>
       </c>
       <c r="I306" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>1911</v>
       </c>
@@ -12262,10 +12262,10 @@
         <v>1170</v>
       </c>
       <c r="I307" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>1911</v>
       </c>
@@ -12288,10 +12288,10 @@
         <v>1170</v>
       </c>
       <c r="I308" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>1911</v>
       </c>
@@ -12311,13 +12311,13 @@
         <v>1041</v>
       </c>
       <c r="H309" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="I309" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>1911</v>
       </c>
@@ -12337,13 +12337,13 @@
         <v>883</v>
       </c>
       <c r="H310" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="I310" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>1911</v>
       </c>
@@ -12366,13 +12366,13 @@
         <v>954</v>
       </c>
       <c r="H311" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="I311" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>1911</v>
       </c>
@@ -12395,10 +12395,10 @@
         <v>1171</v>
       </c>
       <c r="I312" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>1911</v>
       </c>
@@ -12421,10 +12421,10 @@
         <v>1172</v>
       </c>
       <c r="I313" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>1911</v>
       </c>
@@ -12447,10 +12447,10 @@
         <v>1172</v>
       </c>
       <c r="I314" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>1911</v>
       </c>
@@ -12470,13 +12470,13 @@
         <v>3</v>
       </c>
       <c r="H315" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="I315" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>1911</v>
       </c>
@@ -12496,13 +12496,13 @@
         <v>1042</v>
       </c>
       <c r="H316" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="I316" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>1911</v>
       </c>
@@ -12525,10 +12525,10 @@
         <v>1168</v>
       </c>
       <c r="I317" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>1911</v>
       </c>
@@ -12548,13 +12548,13 @@
         <v>864</v>
       </c>
       <c r="H318" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="I318" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>1911</v>
       </c>
@@ -12577,10 +12577,10 @@
         <v>1173</v>
       </c>
       <c r="I319" s="1" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>1911</v>
       </c>
@@ -12606,10 +12606,10 @@
         <v>1174</v>
       </c>
       <c r="I320" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>1911</v>
       </c>
@@ -12632,10 +12632,10 @@
         <v>1175</v>
       </c>
       <c r="I321" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>1911</v>
       </c>
@@ -12658,10 +12658,10 @@
         <v>1175</v>
       </c>
       <c r="I322" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>1911</v>
       </c>
@@ -12684,10 +12684,10 @@
         <v>1173</v>
       </c>
       <c r="I323" s="1" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>1911</v>
       </c>
@@ -12710,10 +12710,10 @@
         <v>1176</v>
       </c>
       <c r="I324" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>1911</v>
       </c>
@@ -12736,10 +12736,10 @@
         <v>1176</v>
       </c>
       <c r="I325" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>1911</v>
       </c>
@@ -12762,10 +12762,10 @@
         <v>1177</v>
       </c>
       <c r="I326" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>1911</v>
       </c>
@@ -12785,13 +12785,13 @@
         <v>1045</v>
       </c>
       <c r="H327" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="I327" s="1" t="s">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>1911</v>
       </c>
@@ -12811,13 +12811,13 @@
         <v>1046</v>
       </c>
       <c r="H328" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="I328" s="1" t="s">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>1911</v>
       </c>
@@ -12837,13 +12837,13 @@
         <v>939</v>
       </c>
       <c r="H329" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="I329" s="1" t="s">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>1911</v>
       </c>
@@ -12863,13 +12863,13 @@
         <v>1047</v>
       </c>
       <c r="H330" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="I330" s="1" t="s">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>1911</v>
       </c>
@@ -12892,10 +12892,10 @@
         <v>1178</v>
       </c>
       <c r="I331" s="1" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>1911</v>
       </c>
@@ -12918,10 +12918,10 @@
         <v>1178</v>
       </c>
       <c r="I332" s="1" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>1911</v>
       </c>
@@ -12944,10 +12944,10 @@
         <v>1178</v>
       </c>
       <c r="I333" s="1" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>1911</v>
       </c>
@@ -12970,10 +12970,10 @@
         <v>1179</v>
       </c>
       <c r="I334" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>1911</v>
       </c>
@@ -12996,10 +12996,10 @@
         <v>1179</v>
       </c>
       <c r="I335" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>1911</v>
       </c>
@@ -13022,10 +13022,10 @@
         <v>1179</v>
       </c>
       <c r="I336" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="337" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>1911</v>
       </c>
@@ -13051,10 +13051,10 @@
         <v>1180</v>
       </c>
       <c r="I337" s="1" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="338" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>1911</v>
       </c>
@@ -13080,10 +13080,10 @@
         <v>1180</v>
       </c>
       <c r="I338" s="1" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="339" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>1911</v>
       </c>
@@ -13109,10 +13109,10 @@
         <v>1180</v>
       </c>
       <c r="I339" s="1" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="340" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>1911</v>
       </c>
@@ -13135,10 +13135,10 @@
         <v>1181</v>
       </c>
       <c r="I340" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="341" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>1911</v>
       </c>
@@ -13161,10 +13161,10 @@
         <v>1181</v>
       </c>
       <c r="I341" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="342" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>1911</v>
       </c>
@@ -13187,16 +13187,16 @@
         <v>1181</v>
       </c>
       <c r="I342" s="1" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="K342" t="s">
         <v>1182</v>
       </c>
       <c r="L342" s="1" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="343" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>1911</v>
       </c>
@@ -13219,10 +13219,10 @@
         <v>1182</v>
       </c>
       <c r="I343" s="1" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="344" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>1911</v>
       </c>
@@ -13245,10 +13245,10 @@
         <v>1182</v>
       </c>
       <c r="I344" s="1" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="345" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>1911</v>
       </c>
@@ -13271,10 +13271,10 @@
         <v>1182</v>
       </c>
       <c r="I345" s="1" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="346" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>1911</v>
       </c>
@@ -13297,16 +13297,16 @@
         <v>1182</v>
       </c>
       <c r="I346" s="1" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="K346" t="s">
         <v>1181</v>
       </c>
       <c r="L346" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="347" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>1911</v>
       </c>
@@ -13329,10 +13329,10 @@
         <v>1183</v>
       </c>
       <c r="I347" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="348" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>1911</v>
       </c>
@@ -13355,10 +13355,10 @@
         <v>1184</v>
       </c>
       <c r="I348" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="349" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>1911</v>
       </c>
@@ -13381,10 +13381,10 @@
         <v>1184</v>
       </c>
       <c r="I349" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="350" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>1911</v>
       </c>
@@ -13410,10 +13410,10 @@
         <v>1158</v>
       </c>
       <c r="I350" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="351" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>1911</v>
       </c>
@@ -13436,10 +13436,10 @@
         <v>1158</v>
       </c>
       <c r="I351" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="352" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>1911</v>
       </c>
@@ -13462,10 +13462,10 @@
         <v>1158</v>
       </c>
       <c r="I352" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>1911</v>
       </c>
@@ -13488,10 +13488,10 @@
         <v>1158</v>
       </c>
       <c r="I353" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>1911</v>
       </c>
@@ -13514,10 +13514,10 @@
         <v>1158</v>
       </c>
       <c r="I354" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>1911</v>
       </c>
@@ -13540,10 +13540,10 @@
         <v>1185</v>
       </c>
       <c r="I355" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>1911</v>
       </c>
@@ -13566,10 +13566,10 @@
         <v>1185</v>
       </c>
       <c r="I356" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>1911</v>
       </c>
@@ -13592,10 +13592,10 @@
         <v>1185</v>
       </c>
       <c r="I357" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>1911</v>
       </c>
@@ -13618,10 +13618,10 @@
         <v>1185</v>
       </c>
       <c r="I358" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>1911</v>
       </c>
@@ -13644,10 +13644,10 @@
         <v>1185</v>
       </c>
       <c r="I359" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>1911</v>
       </c>
@@ -13670,10 +13670,10 @@
         <v>1185</v>
       </c>
       <c r="I360" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>1911</v>
       </c>
@@ -13696,10 +13696,10 @@
         <v>1185</v>
       </c>
       <c r="I361" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>1911</v>
       </c>
@@ -13722,10 +13722,10 @@
         <v>1186</v>
       </c>
       <c r="I362" s="1" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>1911</v>
       </c>
@@ -13748,10 +13748,10 @@
         <v>1186</v>
       </c>
       <c r="I363" s="1" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>1911</v>
       </c>
@@ -13774,10 +13774,10 @@
         <v>1186</v>
       </c>
       <c r="I364" s="1" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>1911</v>
       </c>
@@ -13800,10 +13800,10 @@
         <v>1187</v>
       </c>
       <c r="I365" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>1911</v>
       </c>
@@ -13826,10 +13826,10 @@
         <v>1187</v>
       </c>
       <c r="I366" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>1911</v>
       </c>
@@ -13852,10 +13852,10 @@
         <v>1188</v>
       </c>
       <c r="I367" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>1911</v>
       </c>
@@ -13881,10 +13881,10 @@
         <v>1189</v>
       </c>
       <c r="I368" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="369" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>1911</v>
       </c>
@@ -13910,10 +13910,10 @@
         <v>1189</v>
       </c>
       <c r="I369" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="370" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>1911</v>
       </c>
@@ -13939,10 +13939,10 @@
         <v>1189</v>
       </c>
       <c r="I370" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="371" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>1911</v>
       </c>
@@ -13968,10 +13968,10 @@
         <v>1189</v>
       </c>
       <c r="I371" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="372" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>1911</v>
       </c>
@@ -13994,10 +13994,10 @@
         <v>1190</v>
       </c>
       <c r="I372" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="373" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>1911</v>
       </c>
@@ -14020,10 +14020,10 @@
         <v>1190</v>
       </c>
       <c r="I373" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="374" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>1911</v>
       </c>
@@ -14046,10 +14046,10 @@
         <v>1191</v>
       </c>
       <c r="I374" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="375" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>1911</v>
       </c>
@@ -14072,10 +14072,10 @@
         <v>1191</v>
       </c>
       <c r="I375" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="376" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>1911</v>
       </c>
@@ -14098,10 +14098,10 @@
         <v>1192</v>
       </c>
       <c r="I376" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="377" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>1911</v>
       </c>
@@ -14124,10 +14124,10 @@
         <v>1192</v>
       </c>
       <c r="I377" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="378" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>1911</v>
       </c>
@@ -14150,10 +14150,10 @@
         <v>1192</v>
       </c>
       <c r="I378" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="379" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>1911</v>
       </c>
@@ -14176,10 +14176,10 @@
         <v>1193</v>
       </c>
       <c r="I379" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="380" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="380" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>1911</v>
       </c>
@@ -14202,10 +14202,10 @@
         <v>1193</v>
       </c>
       <c r="I380" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="381" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="381" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>1911</v>
       </c>
@@ -14228,10 +14228,10 @@
         <v>1193</v>
       </c>
       <c r="I381" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="382" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="382" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>1911</v>
       </c>
@@ -14254,16 +14254,16 @@
         <v>1193</v>
       </c>
       <c r="I382" s="1" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="K382" t="s">
         <v>1106</v>
       </c>
       <c r="L382" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="383" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="383" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>1911</v>
       </c>
@@ -14286,10 +14286,10 @@
         <v>1106</v>
       </c>
       <c r="I383" s="1" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="384" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="384" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>1911</v>
       </c>
@@ -14312,10 +14312,10 @@
         <v>1106</v>
       </c>
       <c r="I384" s="1" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="385" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="385" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>1911</v>
       </c>
@@ -14338,10 +14338,10 @@
         <v>1106</v>
       </c>
       <c r="I385" s="1" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="386" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="386" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>1911</v>
       </c>
@@ -14364,16 +14364,16 @@
         <v>1106</v>
       </c>
       <c r="I386" s="1" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="K386" t="s">
         <v>1193</v>
       </c>
       <c r="L386" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="387" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="387" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>1911</v>
       </c>
@@ -14393,13 +14393,13 @@
         <v>836</v>
       </c>
       <c r="H387" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="I387" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="388" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="388" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>1911</v>
       </c>
@@ -14419,16 +14419,16 @@
         <v>1071</v>
       </c>
       <c r="H388" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="I388" s="1" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="J388" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="389" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="389" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>1911</v>
       </c>
@@ -14448,16 +14448,16 @@
         <v>1072</v>
       </c>
       <c r="H389" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="I389" s="1" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="J389" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="390" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="390" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>1911</v>
       </c>
@@ -14477,16 +14477,16 @@
         <v>1073</v>
       </c>
       <c r="H390" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="I390" s="1" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="J390" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="391" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="391" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>1911</v>
       </c>
@@ -14506,16 +14506,16 @@
         <v>1074</v>
       </c>
       <c r="H391" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="I391" s="1" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="J391" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="392" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="392" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>1911</v>
       </c>
@@ -14535,16 +14535,16 @@
         <v>1075</v>
       </c>
       <c r="H392" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="I392" s="1" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="J392" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="393" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="393" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>1911</v>
       </c>
@@ -14561,28 +14561,28 @@
         <v>810</v>
       </c>
       <c r="H393" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="I393" s="1" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="J393" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="K393" t="s">
         <v>1196</v>
       </c>
       <c r="L393" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="M393" t="s">
         <v>1197</v>
       </c>
       <c r="N393" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="394" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="394" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>1911</v>
       </c>
@@ -14605,10 +14605,10 @@
         <v>1194</v>
       </c>
       <c r="I394" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="395" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="395" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>1911</v>
       </c>
@@ -14631,10 +14631,10 @@
         <v>1194</v>
       </c>
       <c r="I395" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="396" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="396" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>1911</v>
       </c>
@@ -14657,10 +14657,10 @@
         <v>1194</v>
       </c>
       <c r="I396" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="397" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="397" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>1911</v>
       </c>
@@ -14683,10 +14683,10 @@
         <v>1194</v>
       </c>
       <c r="I397" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="398" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="398" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>1911</v>
       </c>
@@ -14709,10 +14709,10 @@
         <v>1194</v>
       </c>
       <c r="I398" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="399" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="399" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>1911</v>
       </c>
@@ -14735,10 +14735,10 @@
         <v>1194</v>
       </c>
       <c r="I399" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="400" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="400" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>1911</v>
       </c>
@@ -14761,10 +14761,10 @@
         <v>1195</v>
       </c>
       <c r="I400" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="401" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="401" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>1911</v>
       </c>
@@ -14787,10 +14787,10 @@
         <v>1196</v>
       </c>
       <c r="I401" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="402" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="402" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>1911</v>
       </c>
@@ -14813,10 +14813,10 @@
         <v>1196</v>
       </c>
       <c r="I402" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="403" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="403" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>1911</v>
       </c>
@@ -14836,22 +14836,22 @@
         <v>1196</v>
       </c>
       <c r="I403" s="1" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="K403" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="L403" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="M403" t="s">
         <v>1197</v>
       </c>
       <c r="N403" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="404" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="404" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>1911</v>
       </c>
@@ -14874,10 +14874,10 @@
         <v>1197</v>
       </c>
       <c r="I404" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="405" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="405" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>1911</v>
       </c>
@@ -14897,22 +14897,22 @@
         <v>1197</v>
       </c>
       <c r="I405" s="1" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="K405" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="L405" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="M405" t="s">
         <v>1196</v>
       </c>
       <c r="N405" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="406" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="406" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>1911</v>
       </c>
@@ -14935,10 +14935,10 @@
         <v>1198</v>
       </c>
       <c r="I406" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="407" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="407" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>1911</v>
       </c>
@@ -14961,10 +14961,10 @@
         <v>1198</v>
       </c>
       <c r="I407" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="408" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="408" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>1911</v>
       </c>
@@ -14987,10 +14987,10 @@
         <v>1199</v>
       </c>
       <c r="I408" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="409" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="409" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>1911</v>
       </c>
@@ -15013,10 +15013,10 @@
         <v>1199</v>
       </c>
       <c r="I409" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="410" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="410" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>1911</v>
       </c>
@@ -15039,10 +15039,10 @@
         <v>1199</v>
       </c>
       <c r="I410" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="411" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="411" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>1911</v>
       </c>
@@ -15065,10 +15065,10 @@
         <v>1199</v>
       </c>
       <c r="I411" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="412" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="412" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>1911</v>
       </c>
@@ -15091,10 +15091,10 @@
         <v>1200</v>
       </c>
       <c r="I412" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="413" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="413" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>1911</v>
       </c>
@@ -15117,10 +15117,10 @@
         <v>1200</v>
       </c>
       <c r="I413" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="414" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="414" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>1911</v>
       </c>
@@ -15143,10 +15143,10 @@
         <v>1201</v>
       </c>
       <c r="I414" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="415" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="415" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>1911</v>
       </c>
@@ -15169,10 +15169,10 @@
         <v>1202</v>
       </c>
       <c r="I415" s="1" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="416" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="416" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>1911</v>
       </c>
@@ -15195,10 +15195,10 @@
         <v>1202</v>
       </c>
       <c r="I416" s="1" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="417" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>1911</v>
       </c>
@@ -15221,10 +15221,10 @@
         <v>1202</v>
       </c>
       <c r="I417" s="1" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="418" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>1911</v>
       </c>
@@ -15247,10 +15247,10 @@
         <v>1202</v>
       </c>
       <c r="I418" s="1" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="419" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>1911</v>
       </c>
@@ -15273,7 +15273,7 @@
         <v>1202</v>
       </c>
       <c r="I419" s="1" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
     </row>
   </sheetData>

--- a/data-migration/xlsx_1900-/1911_Winter.xlsx
+++ b/data-migration/xlsx_1900-/1911_Winter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\TEMP_REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F9C039-216C-4B49-B141-53CD4E368B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F36BC69A-4187-4174-ACB1-543E0DBC2EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3004" uniqueCount="1259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3006" uniqueCount="1260">
   <si>
     <t>Winter</t>
   </si>
@@ -3512,9 +3512,6 @@
     <t>werner_a</t>
   </si>
   <si>
-    <t>waser_e</t>
-  </si>
-  <si>
     <t>rittershaus_a</t>
   </si>
   <si>
@@ -3635,9 +3632,6 @@
     <t>hescheler_k</t>
   </si>
   <si>
-    <t>standfuss_m</t>
-  </si>
-  <si>
     <t>bretscher_k</t>
   </si>
   <si>
@@ -3662,9 +3656,6 @@
     <t>Philosophische Fakultät II</t>
   </si>
   <si>
-    <t>vonschulthessrechberg_g</t>
-  </si>
-  <si>
     <t>huber_m</t>
   </si>
   <si>
@@ -3683,9 +3674,6 @@
     <t>sauerbruch_f</t>
   </si>
   <si>
-    <t>meyerrueegg_h</t>
-  </si>
-  <si>
     <t>meyerwirz_e</t>
   </si>
   <si>
@@ -3728,9 +3716,6 @@
     <t>frey_a</t>
   </si>
   <si>
-    <t>vonmonakow_c</t>
-  </si>
-  <si>
     <t>veraguth_o</t>
   </si>
   <si>
@@ -3746,9 +3731,6 @@
     <t>jung_c</t>
   </si>
   <si>
-    <t>wild_w</t>
-  </si>
-  <si>
     <t>faesi_r</t>
   </si>
   <si>
@@ -3767,9 +3749,6 @@
     <t>Rektor</t>
   </si>
   <si>
-    <t>frey_j</t>
-  </si>
-  <si>
     <t>EO</t>
   </si>
   <si>
@@ -3810,6 +3789,30 @@
   </si>
   <si>
     <t>nager_fr</t>
+  </si>
+  <si>
+    <t>frey_j2</t>
+  </si>
+  <si>
+    <t>meyer-rueegg_h</t>
+  </si>
+  <si>
+    <t>walser_e</t>
+  </si>
+  <si>
+    <t>wild_o</t>
+  </si>
+  <si>
+    <t>monakow_c</t>
+  </si>
+  <si>
+    <t>schulthess_rg</t>
+  </si>
+  <si>
+    <t>standfuss_mr</t>
+  </si>
+  <si>
+    <t>silberschmidt_w</t>
   </si>
 </sst>
 </file>
@@ -3850,7 +3853,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -4154,11 +4157,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N419"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F156" workbookViewId="0">
-      <selection activeCell="H168" sqref="H168"/>
+    <sheetView tabSelected="1" topLeftCell="E81" workbookViewId="0">
+      <selection activeCell="H100" sqref="H100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="13.5546875" customWidth="1"/>
     <col min="5" max="5" width="31.33203125" customWidth="1"/>
@@ -4180,7 +4183,7 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -4192,7 +4195,10 @@
         <v>1092</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1234</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -4206,7 +4212,7 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="F2" t="s">
         <v>424</v>
@@ -4218,7 +4224,10 @@
         <v>1090</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1234</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -4232,7 +4241,7 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="F3" t="s">
         <v>425</v>
@@ -4241,10 +4250,10 @@
         <v>836</v>
       </c>
       <c r="H3" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -4258,7 +4267,7 @@
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="F4" t="s">
         <v>426</v>
@@ -4267,10 +4276,10 @@
         <v>837</v>
       </c>
       <c r="H4" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -4284,7 +4293,7 @@
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="F5" t="s">
         <v>427</v>
@@ -4296,7 +4305,7 @@
         <v>1090</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -4310,7 +4319,7 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="F6" t="s">
         <v>428</v>
@@ -4319,13 +4328,13 @@
         <v>839</v>
       </c>
       <c r="H6" t="s">
-        <v>1251</v>
+        <v>1244</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="J6" t="s">
-        <v>1243</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -4339,7 +4348,7 @@
         <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="F7" t="s">
         <v>429</v>
@@ -4351,10 +4360,10 @@
         <v>1092</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="J7" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -4368,7 +4377,7 @@
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="F8" t="s">
         <v>430</v>
@@ -4380,7 +4389,7 @@
         <v>1093</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -4394,7 +4403,7 @@
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="F9" t="s">
         <v>431</v>
@@ -4406,10 +4415,10 @@
         <v>1092</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="J9" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -4423,7 +4432,7 @@
         <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="F10" t="s">
         <v>432</v>
@@ -4435,7 +4444,7 @@
         <v>1091</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -4449,7 +4458,7 @@
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="F11" t="s">
         <v>433</v>
@@ -4461,7 +4470,7 @@
         <v>1091</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -4475,7 +4484,7 @@
         <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="F12" t="s">
         <v>434</v>
@@ -4487,7 +4496,7 @@
         <v>1091</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -4501,7 +4510,7 @@
         <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="F13" t="s">
         <v>435</v>
@@ -4510,10 +4519,10 @@
         <v>845</v>
       </c>
       <c r="H13" t="s">
-        <v>1209</v>
+        <v>1257</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -4527,7 +4536,7 @@
         <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="F14" t="s">
         <v>436</v>
@@ -4536,10 +4545,10 @@
         <v>835</v>
       </c>
       <c r="H14" t="s">
-        <v>1209</v>
+        <v>1257</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -4553,7 +4562,7 @@
         <v>19</v>
       </c>
       <c r="E15" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="F15" t="s">
         <v>437</v>
@@ -4565,7 +4574,7 @@
         <v>1094</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -4579,7 +4588,7 @@
         <v>20</v>
       </c>
       <c r="E16" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="F16" t="s">
         <v>438</v>
@@ -4588,10 +4597,10 @@
         <v>846</v>
       </c>
       <c r="H16" t="s">
-        <v>1209</v>
+        <v>1257</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -4605,7 +4614,7 @@
         <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="F17" t="s">
         <v>439</v>
@@ -4614,10 +4623,10 @@
         <v>847</v>
       </c>
       <c r="H17" t="s">
-        <v>1209</v>
+        <v>1257</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -4631,7 +4640,7 @@
         <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="F18" t="s">
         <v>440</v>
@@ -4643,7 +4652,7 @@
         <v>1094</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -4657,7 +4666,7 @@
         <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="F19" t="s">
         <v>441</v>
@@ -4669,7 +4678,7 @@
         <v>1094</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -4683,7 +4692,7 @@
         <v>24</v>
       </c>
       <c r="E20" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="F20" t="s">
         <v>442</v>
@@ -4692,13 +4701,13 @@
         <v>850</v>
       </c>
       <c r="H20" t="s">
-        <v>1251</v>
+        <v>1244</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="J20" t="s">
-        <v>1243</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -4712,7 +4721,7 @@
         <v>25</v>
       </c>
       <c r="E21" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="F21" t="s">
         <v>443</v>
@@ -4721,13 +4730,13 @@
         <v>851</v>
       </c>
       <c r="H21" t="s">
-        <v>1251</v>
+        <v>1244</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="J21" t="s">
-        <v>1243</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -4741,7 +4750,7 @@
         <v>26</v>
       </c>
       <c r="E22" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="F22" t="s">
         <v>444</v>
@@ -4753,7 +4762,7 @@
         <v>1090</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -4767,7 +4776,7 @@
         <v>27</v>
       </c>
       <c r="E23" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="F23" t="s">
         <v>445</v>
@@ -4776,13 +4785,13 @@
         <v>853</v>
       </c>
       <c r="H23" t="s">
-        <v>1251</v>
+        <v>1244</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="J23" t="s">
-        <v>1243</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -4796,7 +4805,7 @@
         <v>28</v>
       </c>
       <c r="E24" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="F24" t="s">
         <v>446</v>
@@ -4808,10 +4817,10 @@
         <v>1092</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="J24" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -4825,7 +4834,7 @@
         <v>29</v>
       </c>
       <c r="E25" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="F25" t="s">
         <v>447</v>
@@ -4837,7 +4846,7 @@
         <v>1091</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -4851,7 +4860,7 @@
         <v>30</v>
       </c>
       <c r="E26" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="F26" t="s">
         <v>448</v>
@@ -4863,7 +4872,7 @@
         <v>1094</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -4877,7 +4886,7 @@
         <v>31</v>
       </c>
       <c r="E27" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="F27" t="s">
         <v>449</v>
@@ -4889,7 +4898,7 @@
         <v>1094</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -4903,7 +4912,7 @@
         <v>32</v>
       </c>
       <c r="E28" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="F28" t="s">
         <v>450</v>
@@ -4912,13 +4921,13 @@
         <v>855</v>
       </c>
       <c r="H28" t="s">
-        <v>1251</v>
+        <v>1244</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="J28" t="s">
-        <v>1243</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -4932,7 +4941,7 @@
         <v>33</v>
       </c>
       <c r="E29" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="F29" t="s">
         <v>451</v>
@@ -4944,10 +4953,10 @@
         <v>1095</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="J29" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -4961,7 +4970,7 @@
         <v>34</v>
       </c>
       <c r="E30" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="F30" t="s">
         <v>452</v>
@@ -4973,7 +4982,7 @@
         <v>1096</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -4987,7 +4996,7 @@
         <v>35</v>
       </c>
       <c r="E31" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="F31" t="s">
         <v>453</v>
@@ -4999,7 +5008,7 @@
         <v>1096</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -5013,7 +5022,7 @@
         <v>36</v>
       </c>
       <c r="E32" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="F32" t="s">
         <v>454</v>
@@ -5025,7 +5034,7 @@
         <v>1097</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -5039,7 +5048,7 @@
         <v>37</v>
       </c>
       <c r="E33" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="F33" t="s">
         <v>455</v>
@@ -5051,7 +5060,7 @@
         <v>1098</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
@@ -5065,7 +5074,7 @@
         <v>38</v>
       </c>
       <c r="E34" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="F34" t="s">
         <v>456</v>
@@ -5077,7 +5086,7 @@
         <v>1098</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
@@ -5091,7 +5100,7 @@
         <v>39</v>
       </c>
       <c r="E35" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="F35" t="s">
         <v>457</v>
@@ -5103,7 +5112,7 @@
         <v>1099</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
@@ -5117,7 +5126,7 @@
         <v>40</v>
       </c>
       <c r="E36" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="F36" t="s">
         <v>458</v>
@@ -5129,7 +5138,7 @@
         <v>1097</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
@@ -5143,7 +5152,7 @@
         <v>41</v>
       </c>
       <c r="E37" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="F37" t="s">
         <v>459</v>
@@ -5155,7 +5164,7 @@
         <v>1097</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
@@ -5169,7 +5178,7 @@
         <v>42</v>
       </c>
       <c r="E38" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="F38" t="s">
         <v>460</v>
@@ -5178,10 +5187,10 @@
         <v>865</v>
       </c>
       <c r="H38" t="s">
-        <v>1257</v>
+        <v>1250</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
@@ -5195,7 +5204,7 @@
         <v>43</v>
       </c>
       <c r="E39" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="F39" t="s">
         <v>461</v>
@@ -5207,7 +5216,7 @@
         <v>1100</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
@@ -5221,19 +5230,19 @@
         <v>44</v>
       </c>
       <c r="E40" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="F40" t="s">
         <v>462</v>
       </c>
       <c r="G40" t="s">
-        <v>1249</v>
+        <v>1242</v>
       </c>
       <c r="H40" t="s">
         <v>1101</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
@@ -5247,7 +5256,7 @@
         <v>45</v>
       </c>
       <c r="E41" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="F41" t="s">
         <v>463</v>
@@ -5259,10 +5268,10 @@
         <v>1095</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="J41" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
@@ -5276,7 +5285,7 @@
         <v>46</v>
       </c>
       <c r="E42" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="F42" t="s">
         <v>464</v>
@@ -5288,10 +5297,10 @@
         <v>1095</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="J42" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
@@ -5305,7 +5314,7 @@
         <v>47</v>
       </c>
       <c r="E43" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="F43" t="s">
         <v>465</v>
@@ -5317,7 +5326,7 @@
         <v>1101</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
@@ -5331,7 +5340,7 @@
         <v>48</v>
       </c>
       <c r="E44" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="F44" t="s">
         <v>466</v>
@@ -5343,10 +5352,10 @@
         <v>1095</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="J44" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
@@ -5360,7 +5369,7 @@
         <v>49</v>
       </c>
       <c r="E45" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="F45" t="s">
         <v>467</v>
@@ -5372,7 +5381,7 @@
         <v>1101</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
@@ -5386,7 +5395,7 @@
         <v>50</v>
       </c>
       <c r="E46" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="F46" t="s">
         <v>468</v>
@@ -5398,7 +5407,7 @@
         <v>1102</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
@@ -5412,7 +5421,7 @@
         <v>51</v>
       </c>
       <c r="E47" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="F47" t="s">
         <v>469</v>
@@ -5424,7 +5433,7 @@
         <v>1102</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
@@ -5438,7 +5447,7 @@
         <v>52</v>
       </c>
       <c r="E48" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="F48" t="s">
         <v>470</v>
@@ -5447,10 +5456,10 @@
         <v>874</v>
       </c>
       <c r="H48" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
@@ -5464,7 +5473,7 @@
         <v>53</v>
       </c>
       <c r="E49" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="F49" t="s">
         <v>471</v>
@@ -5473,10 +5482,10 @@
         <v>875</v>
       </c>
       <c r="H49" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
@@ -5490,7 +5499,7 @@
         <v>54</v>
       </c>
       <c r="E50" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="F50" t="s">
         <v>472</v>
@@ -5502,7 +5511,7 @@
         <v>1103</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>1247</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
@@ -5516,7 +5525,7 @@
         <v>55</v>
       </c>
       <c r="E51" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="F51" t="s">
         <v>473</v>
@@ -5528,7 +5537,7 @@
         <v>1103</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>1247</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
@@ -5542,7 +5551,7 @@
         <v>56</v>
       </c>
       <c r="E52" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="F52" t="s">
         <v>474</v>
@@ -5554,7 +5563,7 @@
         <v>1104</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
@@ -5568,7 +5577,7 @@
         <v>57</v>
       </c>
       <c r="E53" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="F53" t="s">
         <v>475</v>
@@ -5580,7 +5589,7 @@
         <v>1105</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
@@ -5594,7 +5603,7 @@
         <v>58</v>
       </c>
       <c r="E54" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="F54" t="s">
         <v>476</v>
@@ -5606,7 +5615,7 @@
         <v>1106</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>1247</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
@@ -5620,7 +5629,7 @@
         <v>59</v>
       </c>
       <c r="E55" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="F55" t="s">
         <v>477</v>
@@ -5632,7 +5641,7 @@
         <v>1107</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
@@ -5646,7 +5655,7 @@
         <v>60</v>
       </c>
       <c r="E56" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="F56" t="s">
         <v>478</v>
@@ -5655,10 +5664,10 @@
         <v>877</v>
       </c>
       <c r="H56" t="s">
-        <v>1250</v>
+        <v>1243</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>1247</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
@@ -5672,7 +5681,7 @@
         <v>61</v>
       </c>
       <c r="E57" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="F57" t="s">
         <v>479</v>
@@ -5681,10 +5690,10 @@
         <v>853</v>
       </c>
       <c r="H57" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
@@ -5698,7 +5707,7 @@
         <v>62</v>
       </c>
       <c r="E58" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="F58" t="s">
         <v>480</v>
@@ -5707,10 +5716,10 @@
         <v>882</v>
       </c>
       <c r="H58" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
@@ -5724,7 +5733,7 @@
         <v>63</v>
       </c>
       <c r="E59" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="F59" t="s">
         <v>481</v>
@@ -5736,7 +5745,7 @@
         <v>1109</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
@@ -5750,7 +5759,7 @@
         <v>64</v>
       </c>
       <c r="E60" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="F60" t="s">
         <v>482</v>
@@ -5759,10 +5768,10 @@
         <v>884</v>
       </c>
       <c r="H60" t="s">
-        <v>1248</v>
+        <v>1241</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>1247</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
@@ -5776,7 +5785,7 @@
         <v>65</v>
       </c>
       <c r="E61" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="F61" t="s">
         <v>483</v>
@@ -5785,10 +5794,10 @@
         <v>885</v>
       </c>
       <c r="H61" t="s">
-        <v>1244</v>
+        <v>1252</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>1247</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
@@ -5802,7 +5811,7 @@
         <v>66</v>
       </c>
       <c r="E62" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="F62" t="s">
         <v>484</v>
@@ -5814,7 +5823,7 @@
         <v>1111</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>1247</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
@@ -5828,7 +5837,7 @@
         <v>67</v>
       </c>
       <c r="E63" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="F63" t="s">
         <v>485</v>
@@ -5840,10 +5849,10 @@
         <v>1095</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="J63" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
@@ -5857,7 +5866,7 @@
         <v>68</v>
       </c>
       <c r="E64" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="F64" t="s">
         <v>486</v>
@@ -5869,7 +5878,7 @@
         <v>1096</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
@@ -5883,7 +5892,7 @@
         <v>69</v>
       </c>
       <c r="E65" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="F65" t="s">
         <v>487</v>
@@ -5895,7 +5904,7 @@
         <v>1097</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
@@ -5909,7 +5918,7 @@
         <v>70</v>
       </c>
       <c r="E66" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="F66" t="s">
         <v>488</v>
@@ -5921,7 +5930,7 @@
         <v>1097</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
@@ -5935,7 +5944,7 @@
         <v>71</v>
       </c>
       <c r="E67" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="F67" t="s">
         <v>489</v>
@@ -5947,7 +5956,7 @@
         <v>1098</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.3">
@@ -5961,7 +5970,7 @@
         <v>72</v>
       </c>
       <c r="E68" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="F68" t="s">
         <v>490</v>
@@ -5973,7 +5982,7 @@
         <v>1102</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.3">
@@ -5987,7 +5996,7 @@
         <v>73</v>
       </c>
       <c r="E69" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="F69" t="s">
         <v>491</v>
@@ -5996,10 +6005,10 @@
         <v>892</v>
       </c>
       <c r="H69" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.3">
@@ -6013,7 +6022,7 @@
         <v>74</v>
       </c>
       <c r="E70" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="F70" t="s">
         <v>492</v>
@@ -6025,7 +6034,7 @@
         <v>1107</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.3">
@@ -6039,7 +6048,7 @@
         <v>75</v>
       </c>
       <c r="E71" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="F71" t="s">
         <v>493</v>
@@ -6051,7 +6060,7 @@
         <v>1104</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.3">
@@ -6065,7 +6074,7 @@
         <v>76</v>
       </c>
       <c r="E72" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="F72" t="s">
         <v>494</v>
@@ -6077,7 +6086,7 @@
         <v>1104</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.3">
@@ -6091,7 +6100,7 @@
         <v>77</v>
       </c>
       <c r="E73" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="F73" t="s">
         <v>495</v>
@@ -6103,7 +6112,7 @@
         <v>1105</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
@@ -6117,7 +6126,7 @@
         <v>78</v>
       </c>
       <c r="E74" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="F74" t="s">
         <v>496</v>
@@ -6129,7 +6138,7 @@
         <v>1106</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>1247</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
@@ -6143,7 +6152,7 @@
         <v>79</v>
       </c>
       <c r="E75" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="F75" t="s">
         <v>497</v>
@@ -6152,10 +6161,10 @@
         <v>896</v>
       </c>
       <c r="H75" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.3">
@@ -6169,7 +6178,7 @@
         <v>80</v>
       </c>
       <c r="E76" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="F76" t="s">
         <v>498</v>
@@ -6178,10 +6187,10 @@
         <v>884</v>
       </c>
       <c r="H76" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.3">
@@ -6195,7 +6204,7 @@
         <v>81</v>
       </c>
       <c r="E77" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="F77" t="s">
         <v>499</v>
@@ -6204,10 +6213,10 @@
         <v>897</v>
       </c>
       <c r="H77" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.3">
@@ -6221,7 +6230,7 @@
         <v>82</v>
       </c>
       <c r="E78" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="F78" t="s">
         <v>500</v>
@@ -6230,16 +6239,16 @@
         <v>898</v>
       </c>
       <c r="H78" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>1247</v>
+        <v>1240</v>
       </c>
       <c r="K78" t="s">
         <v>1112</v>
       </c>
       <c r="L78" t="s">
-        <v>1247</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.3">
@@ -6253,7 +6262,7 @@
         <v>83</v>
       </c>
       <c r="E79" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="F79" t="s">
         <v>501</v>
@@ -6265,7 +6274,7 @@
         <v>1113</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>1247</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.3">
@@ -6279,7 +6288,7 @@
         <v>84</v>
       </c>
       <c r="E80" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F80" t="s">
         <v>502</v>
@@ -6291,19 +6300,19 @@
         <v>1114</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="K80" t="s">
         <v>1115</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
       <c r="M80" t="s">
         <v>1117</v>
       </c>
       <c r="N80" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
@@ -6320,7 +6329,7 @@
         <v>85</v>
       </c>
       <c r="E81" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F81" t="s">
         <v>503</v>
@@ -6332,7 +6341,7 @@
         <v>1114</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
@@ -6346,7 +6355,7 @@
         <v>86</v>
       </c>
       <c r="E82" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F82" t="s">
         <v>504</v>
@@ -6358,7 +6367,7 @@
         <v>1114</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
@@ -6372,7 +6381,7 @@
         <v>87</v>
       </c>
       <c r="E83" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F83" t="s">
         <v>505</v>
@@ -6384,7 +6393,7 @@
         <v>1115</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
@@ -6398,7 +6407,7 @@
         <v>88</v>
       </c>
       <c r="E84" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F84" t="s">
         <v>506</v>
@@ -6407,7 +6416,7 @@
         <v>1115</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
@@ -6421,7 +6430,7 @@
         <v>89</v>
       </c>
       <c r="E85" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F85" t="s">
         <v>507</v>
@@ -6433,7 +6442,7 @@
         <v>1115</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
@@ -6447,7 +6456,7 @@
         <v>90</v>
       </c>
       <c r="E86" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F86" t="s">
         <v>508</v>
@@ -6459,7 +6468,7 @@
         <v>1116</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
@@ -6473,7 +6482,7 @@
         <v>91</v>
       </c>
       <c r="E87" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F87" t="s">
         <v>509</v>
@@ -6485,7 +6494,7 @@
         <v>1117</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
@@ -6499,7 +6508,7 @@
         <v>92</v>
       </c>
       <c r="E88" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F88" t="s">
         <v>510</v>
@@ -6508,10 +6517,10 @@
         <v>906</v>
       </c>
       <c r="H88" t="s">
-        <v>1231</v>
+        <v>1256</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
@@ -6525,7 +6534,7 @@
         <v>93</v>
       </c>
       <c r="E89" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F89" t="s">
         <v>511</v>
@@ -6534,10 +6543,10 @@
         <v>907</v>
       </c>
       <c r="H89" t="s">
-        <v>1231</v>
+        <v>1256</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
@@ -6551,7 +6560,7 @@
         <v>94</v>
       </c>
       <c r="E90" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F90" t="s">
         <v>512</v>
@@ -6563,7 +6572,7 @@
         <v>1118</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
@@ -6577,7 +6586,7 @@
         <v>95</v>
       </c>
       <c r="E91" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F91" t="s">
         <v>513</v>
@@ -6589,7 +6598,7 @@
         <v>1118</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
@@ -6603,7 +6612,7 @@
         <v>96</v>
       </c>
       <c r="E92" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F92" t="s">
         <v>514</v>
@@ -6615,7 +6624,7 @@
         <v>1118</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
@@ -6629,7 +6638,7 @@
         <v>97</v>
       </c>
       <c r="E93" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F93" t="s">
         <v>515</v>
@@ -6641,7 +6650,7 @@
         <v>1118</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
@@ -6655,7 +6664,7 @@
         <v>98</v>
       </c>
       <c r="E94" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F94" t="s">
         <v>516</v>
@@ -6667,7 +6676,7 @@
         <v>1118</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
@@ -6681,7 +6690,7 @@
         <v>99</v>
       </c>
       <c r="E95" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F95" t="s">
         <v>517</v>
@@ -6693,7 +6702,7 @@
         <v>1119</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
@@ -6707,7 +6716,7 @@
         <v>100</v>
       </c>
       <c r="E96" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F96" t="s">
         <v>518</v>
@@ -6719,7 +6728,7 @@
         <v>1119</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
@@ -6733,7 +6742,7 @@
         <v>101</v>
       </c>
       <c r="E97" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F97" t="s">
         <v>519</v>
@@ -6742,10 +6751,10 @@
         <v>912</v>
       </c>
       <c r="H97" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
@@ -6759,7 +6768,7 @@
         <v>102</v>
       </c>
       <c r="E98" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F98" t="s">
         <v>520</v>
@@ -6768,10 +6777,10 @@
         <v>913</v>
       </c>
       <c r="H98" t="s">
-        <v>1212</v>
+        <v>1259</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
@@ -6785,7 +6794,7 @@
         <v>103</v>
       </c>
       <c r="E99" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F99" t="s">
         <v>521</v>
@@ -6794,10 +6803,10 @@
         <v>914</v>
       </c>
       <c r="H99" t="s">
-        <v>1212</v>
+        <v>1259</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
@@ -6811,7 +6820,7 @@
         <v>104</v>
       </c>
       <c r="E100" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F100" t="s">
         <v>522</v>
@@ -6820,10 +6829,10 @@
         <v>915</v>
       </c>
       <c r="H100" t="s">
-        <v>1212</v>
+        <v>1259</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
@@ -6837,7 +6846,7 @@
         <v>105</v>
       </c>
       <c r="E101" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F101" t="s">
         <v>523</v>
@@ -6849,7 +6858,7 @@
         <v>1120</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
@@ -6863,7 +6872,7 @@
         <v>106</v>
       </c>
       <c r="E102" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F102" t="s">
         <v>524</v>
@@ -6875,7 +6884,7 @@
         <v>1120</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
@@ -6889,7 +6898,7 @@
         <v>107</v>
       </c>
       <c r="E103" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F103" t="s">
         <v>525</v>
@@ -6901,7 +6910,7 @@
         <v>1120</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
@@ -6915,7 +6924,7 @@
         <v>108</v>
       </c>
       <c r="E104" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F104" t="s">
         <v>526</v>
@@ -6927,7 +6936,7 @@
         <v>1120</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
@@ -6941,7 +6950,7 @@
         <v>109</v>
       </c>
       <c r="E105" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F105" t="s">
         <v>504</v>
@@ -6953,7 +6962,7 @@
         <v>1120</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
@@ -6967,7 +6976,7 @@
         <v>110</v>
       </c>
       <c r="E106" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F106" t="s">
         <v>527</v>
@@ -6976,13 +6985,13 @@
         <v>920</v>
       </c>
       <c r="H106" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="J106" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
@@ -6996,7 +7005,7 @@
         <v>111</v>
       </c>
       <c r="E107" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F107" t="s">
         <v>528</v>
@@ -7005,13 +7014,13 @@
         <v>921</v>
       </c>
       <c r="H107" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="J107" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
@@ -7025,7 +7034,7 @@
         <v>112</v>
       </c>
       <c r="E108" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F108" t="s">
         <v>529</v>
@@ -7037,7 +7046,7 @@
         <v>1121</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
@@ -7051,7 +7060,7 @@
         <v>113</v>
       </c>
       <c r="E109" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F109" t="s">
         <v>530</v>
@@ -7063,7 +7072,7 @@
         <v>1121</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
@@ -7077,7 +7086,7 @@
         <v>114</v>
       </c>
       <c r="E110" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F110" t="s">
         <v>531</v>
@@ -7089,7 +7098,7 @@
         <v>1121</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
@@ -7103,7 +7112,7 @@
         <v>115</v>
       </c>
       <c r="E111" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F111" t="s">
         <v>532</v>
@@ -7115,7 +7124,7 @@
         <v>1121</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.3">
@@ -7129,7 +7138,7 @@
         <v>116</v>
       </c>
       <c r="E112" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F112" t="s">
         <v>533</v>
@@ -7138,10 +7147,10 @@
         <v>926</v>
       </c>
       <c r="H112" t="s">
-        <v>1231</v>
+        <v>1256</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
@@ -7155,7 +7164,7 @@
         <v>117</v>
       </c>
       <c r="E113" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F113" t="s">
         <v>534</v>
@@ -7164,10 +7173,10 @@
         <v>836</v>
       </c>
       <c r="H113" t="s">
-        <v>1232</v>
+        <v>1227</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
@@ -7181,7 +7190,7 @@
         <v>118</v>
       </c>
       <c r="E114" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F114" t="s">
         <v>535</v>
@@ -7190,10 +7199,10 @@
         <v>836</v>
       </c>
       <c r="H114" t="s">
-        <v>1232</v>
+        <v>1227</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
@@ -7207,7 +7216,7 @@
         <v>119</v>
       </c>
       <c r="E115" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F115" t="s">
         <v>536</v>
@@ -7216,10 +7225,10 @@
         <v>835</v>
       </c>
       <c r="H115" t="s">
-        <v>1232</v>
+        <v>1227</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
@@ -7233,7 +7242,7 @@
         <v>120</v>
       </c>
       <c r="E116" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F116" t="s">
         <v>537</v>
@@ -7242,10 +7251,10 @@
         <v>835</v>
       </c>
       <c r="H116" t="s">
-        <v>1232</v>
+        <v>1227</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
@@ -7259,7 +7268,7 @@
         <v>121</v>
       </c>
       <c r="E117" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F117" t="s">
         <v>538</v>
@@ -7268,10 +7277,10 @@
         <v>927</v>
       </c>
       <c r="H117" t="s">
-        <v>1233</v>
+        <v>1228</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
@@ -7285,7 +7294,7 @@
         <v>122</v>
       </c>
       <c r="E118" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F118" t="s">
         <v>539</v>
@@ -7294,10 +7303,10 @@
         <v>928</v>
       </c>
       <c r="H118" t="s">
-        <v>1233</v>
+        <v>1228</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
@@ -7311,7 +7320,7 @@
         <v>123</v>
       </c>
       <c r="E119" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F119" t="s">
         <v>540</v>
@@ -7323,7 +7332,7 @@
         <v>1122</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
@@ -7337,7 +7346,7 @@
         <v>124</v>
       </c>
       <c r="E120" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F120" t="s">
         <v>541</v>
@@ -7349,7 +7358,7 @@
         <v>1123</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
@@ -7363,7 +7372,7 @@
         <v>125</v>
       </c>
       <c r="E121" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F121" t="s">
         <v>542</v>
@@ -7375,7 +7384,7 @@
         <v>1123</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
@@ -7389,7 +7398,7 @@
         <v>126</v>
       </c>
       <c r="E122" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F122" t="s">
         <v>543</v>
@@ -7401,7 +7410,7 @@
         <v>1124</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
@@ -7415,7 +7424,7 @@
         <v>127</v>
       </c>
       <c r="E123" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F123" t="s">
         <v>544</v>
@@ -7427,7 +7436,7 @@
         <v>1124</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
@@ -7441,7 +7450,7 @@
         <v>128</v>
       </c>
       <c r="E124" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F124" t="s">
         <v>545</v>
@@ -7453,7 +7462,7 @@
         <v>1124</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
@@ -7467,7 +7476,7 @@
         <v>129</v>
       </c>
       <c r="E125" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F125" t="s">
         <v>546</v>
@@ -7476,10 +7485,10 @@
         <v>835</v>
       </c>
       <c r="H125" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
@@ -7493,7 +7502,7 @@
         <v>130</v>
       </c>
       <c r="E126" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F126" t="s">
         <v>547</v>
@@ -7505,7 +7514,7 @@
         <v>1125</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
@@ -7519,7 +7528,7 @@
         <v>131</v>
       </c>
       <c r="E127" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F127" t="s">
         <v>548</v>
@@ -7531,7 +7540,7 @@
         <v>1125</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
@@ -7545,7 +7554,7 @@
         <v>132</v>
       </c>
       <c r="E128" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F128" t="s">
         <v>549</v>
@@ -7557,7 +7566,7 @@
         <v>1126</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.3">
@@ -7571,7 +7580,7 @@
         <v>133</v>
       </c>
       <c r="E129" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F129" t="s">
         <v>550</v>
@@ -7583,7 +7592,7 @@
         <v>1126</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.3">
@@ -7597,7 +7606,7 @@
         <v>134</v>
       </c>
       <c r="E130" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F130" t="s">
         <v>551</v>
@@ -7609,7 +7618,7 @@
         <v>1127</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.3">
@@ -7623,7 +7632,7 @@
         <v>135</v>
       </c>
       <c r="E131" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F131" t="s">
         <v>552</v>
@@ -7635,7 +7644,7 @@
         <v>1127</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.3">
@@ -7649,7 +7658,7 @@
         <v>136</v>
       </c>
       <c r="E132" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F132" t="s">
         <v>553</v>
@@ -7658,10 +7667,10 @@
         <v>936</v>
       </c>
       <c r="H132" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.3">
@@ -7675,7 +7684,7 @@
         <v>137</v>
       </c>
       <c r="E133" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F133" t="s">
         <v>554</v>
@@ -7684,16 +7693,16 @@
         <v>937</v>
       </c>
       <c r="H133" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>1242</v>
+        <v>1235</v>
       </c>
       <c r="K133" t="s">
         <v>1128</v>
       </c>
       <c r="L133" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.3">
@@ -7707,7 +7716,7 @@
         <v>138</v>
       </c>
       <c r="E134" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F134" t="s">
         <v>555</v>
@@ -7716,10 +7725,10 @@
         <v>938</v>
       </c>
       <c r="H134" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.3">
@@ -7733,7 +7742,7 @@
         <v>139</v>
       </c>
       <c r="E135" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F135" t="s">
         <v>556</v>
@@ -7745,7 +7754,7 @@
         <v>1128</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.3">
@@ -7759,7 +7768,7 @@
         <v>140</v>
       </c>
       <c r="E136" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F136" t="s">
         <v>557</v>
@@ -7771,7 +7780,7 @@
         <v>1128</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.3">
@@ -7785,7 +7794,7 @@
         <v>141</v>
       </c>
       <c r="E137" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F137" t="s">
         <v>558</v>
@@ -7794,16 +7803,16 @@
         <v>835</v>
       </c>
       <c r="H137" t="s">
-        <v>1235</v>
+        <v>1230</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
       <c r="K137" t="s">
-        <v>1234</v>
+        <v>1229</v>
       </c>
       <c r="L137" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.3">
@@ -7817,7 +7826,7 @@
         <v>142</v>
       </c>
       <c r="E138" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F138" t="s">
         <v>558</v>
@@ -7826,16 +7835,16 @@
         <v>835</v>
       </c>
       <c r="H138" t="s">
-        <v>1234</v>
+        <v>1229</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
       <c r="K138" t="s">
-        <v>1235</v>
+        <v>1230</v>
       </c>
       <c r="L138" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.3">
@@ -7849,7 +7858,7 @@
         <v>143</v>
       </c>
       <c r="E139" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F139" t="s">
         <v>559</v>
@@ -7861,7 +7870,7 @@
         <v>1129</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.3">
@@ -7875,7 +7884,7 @@
         <v>144</v>
       </c>
       <c r="E140" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F140" t="s">
         <v>560</v>
@@ -7887,7 +7896,7 @@
         <v>1130</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.3">
@@ -7901,7 +7910,7 @@
         <v>145</v>
       </c>
       <c r="E141" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F141" t="s">
         <v>561</v>
@@ -7913,7 +7922,7 @@
         <v>1131</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.3">
@@ -7927,7 +7936,7 @@
         <v>146</v>
       </c>
       <c r="E142" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F142" t="s">
         <v>562</v>
@@ -7939,7 +7948,7 @@
         <v>1131</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.3">
@@ -7953,7 +7962,7 @@
         <v>147</v>
       </c>
       <c r="E143" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F143" t="s">
         <v>563</v>
@@ -7965,7 +7974,7 @@
         <v>1132</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.3">
@@ -7979,7 +7988,7 @@
         <v>148</v>
       </c>
       <c r="E144" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F144" t="s">
         <v>564</v>
@@ -7991,7 +8000,7 @@
         <v>1133</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
@@ -8005,7 +8014,7 @@
         <v>149</v>
       </c>
       <c r="E145" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F145" t="s">
         <v>565</v>
@@ -8017,7 +8026,7 @@
         <v>1133</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
@@ -8031,7 +8040,7 @@
         <v>150</v>
       </c>
       <c r="E146" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F146" t="s">
         <v>566</v>
@@ -8043,7 +8052,7 @@
         <v>1134</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
@@ -8057,7 +8066,7 @@
         <v>151</v>
       </c>
       <c r="E147" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F147" t="s">
         <v>567</v>
@@ -8069,7 +8078,7 @@
         <v>1134</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
@@ -8083,7 +8092,7 @@
         <v>152</v>
       </c>
       <c r="E148" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F148" t="s">
         <v>568</v>
@@ -8095,7 +8104,7 @@
         <v>1135</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
@@ -8109,7 +8118,7 @@
         <v>153</v>
       </c>
       <c r="E149" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F149" t="s">
         <v>569</v>
@@ -8121,7 +8130,7 @@
         <v>1135</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
@@ -8135,7 +8144,7 @@
         <v>154</v>
       </c>
       <c r="E150" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F150" t="s">
         <v>570</v>
@@ -8144,10 +8153,10 @@
         <v>945</v>
       </c>
       <c r="H150" t="s">
-        <v>1216</v>
+        <v>1253</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
@@ -8161,7 +8170,7 @@
         <v>155</v>
       </c>
       <c r="E151" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F151" t="s">
         <v>571</v>
@@ -8170,10 +8179,10 @@
         <v>835</v>
       </c>
       <c r="H151" t="s">
-        <v>1216</v>
+        <v>1253</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
@@ -8187,7 +8196,7 @@
         <v>156</v>
       </c>
       <c r="E152" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F152" t="s">
         <v>572</v>
@@ -8196,10 +8205,10 @@
         <v>946</v>
       </c>
       <c r="H152" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
@@ -8213,7 +8222,7 @@
         <v>157</v>
       </c>
       <c r="E153" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F153" t="s">
         <v>573</v>
@@ -8225,7 +8234,7 @@
         <v>1136</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
@@ -8239,7 +8248,7 @@
         <v>158</v>
       </c>
       <c r="E154" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F154" t="s">
         <v>574</v>
@@ -8251,7 +8260,7 @@
         <v>1136</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
@@ -8265,7 +8274,7 @@
         <v>159</v>
       </c>
       <c r="E155" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F155" t="s">
         <v>575</v>
@@ -8277,7 +8286,7 @@
         <v>1137</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
@@ -8291,7 +8300,7 @@
         <v>160</v>
       </c>
       <c r="E156" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F156" t="s">
         <v>576</v>
@@ -8303,7 +8312,7 @@
         <v>1137</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
@@ -8317,7 +8326,7 @@
         <v>161</v>
       </c>
       <c r="E157" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F157" t="s">
         <v>577</v>
@@ -8326,10 +8335,10 @@
         <v>950</v>
       </c>
       <c r="H157" t="s">
-        <v>1254</v>
+        <v>1247</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
@@ -8343,7 +8352,7 @@
         <v>162</v>
       </c>
       <c r="E158" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F158" t="s">
         <v>578</v>
@@ -8355,7 +8364,7 @@
         <v>1138</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
@@ -8369,7 +8378,7 @@
         <v>163</v>
       </c>
       <c r="E159" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F159" t="s">
         <v>579</v>
@@ -8381,7 +8390,7 @@
         <v>1138</v>
       </c>
       <c r="I159" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
@@ -8395,7 +8404,7 @@
         <v>164</v>
       </c>
       <c r="E160" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F160" t="s">
         <v>580</v>
@@ -8407,7 +8416,7 @@
         <v>1138</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
@@ -8421,7 +8430,7 @@
         <v>165</v>
       </c>
       <c r="E161" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F161" t="s">
         <v>581</v>
@@ -8430,10 +8439,10 @@
         <v>835</v>
       </c>
       <c r="H161" t="s">
+        <v>1231</v>
+      </c>
+      <c r="I161" s="1" t="s">
         <v>1236</v>
-      </c>
-      <c r="I161" s="1" t="s">
-        <v>1242</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.3">
@@ -8447,7 +8456,7 @@
         <v>166</v>
       </c>
       <c r="E162" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F162" t="s">
         <v>582</v>
@@ -8459,7 +8468,7 @@
         <v>1139</v>
       </c>
       <c r="I162" s="1" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
@@ -8473,7 +8482,7 @@
         <v>167</v>
       </c>
       <c r="E163" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F163" t="s">
         <v>583</v>
@@ -8485,7 +8494,7 @@
         <v>1139</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
@@ -8499,7 +8508,7 @@
         <v>168</v>
       </c>
       <c r="E164" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F164" t="s">
         <v>584</v>
@@ -8511,7 +8520,7 @@
         <v>1139</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
@@ -8525,7 +8534,7 @@
         <v>169</v>
       </c>
       <c r="E165" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F165" t="s">
         <v>585</v>
@@ -8537,7 +8546,7 @@
         <v>1139</v>
       </c>
       <c r="I165" s="1" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
@@ -8551,7 +8560,7 @@
         <v>170</v>
       </c>
       <c r="E166" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F166" t="s">
         <v>586</v>
@@ -8563,7 +8572,7 @@
         <v>1139</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
@@ -8577,7 +8586,7 @@
         <v>171</v>
       </c>
       <c r="E167" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F167" t="s">
         <v>587</v>
@@ -8589,7 +8598,7 @@
         <v>1140</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
@@ -8603,7 +8612,7 @@
         <v>172</v>
       </c>
       <c r="E168" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F168" t="s">
         <v>588</v>
@@ -8612,10 +8621,10 @@
         <v>954</v>
       </c>
       <c r="H168" t="s">
-        <v>1258</v>
+        <v>1251</v>
       </c>
       <c r="I168" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.3">
@@ -8629,7 +8638,7 @@
         <v>173</v>
       </c>
       <c r="E169" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F169" t="s">
         <v>589</v>
@@ -8638,10 +8647,10 @@
         <v>955</v>
       </c>
       <c r="H169" t="s">
-        <v>1258</v>
+        <v>1251</v>
       </c>
       <c r="I169" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
@@ -8655,7 +8664,7 @@
         <v>174</v>
       </c>
       <c r="E170" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F170" t="s">
         <v>590</v>
@@ -8664,10 +8673,10 @@
         <v>836</v>
       </c>
       <c r="H170" t="s">
-        <v>1237</v>
+        <v>1255</v>
       </c>
       <c r="I170" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.3">
@@ -8681,7 +8690,7 @@
         <v>175</v>
       </c>
       <c r="E171" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F171" t="s">
         <v>591</v>
@@ -8693,7 +8702,7 @@
         <v>1141</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>1256</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.3">
@@ -8707,7 +8716,7 @@
         <v>176</v>
       </c>
       <c r="E172" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F172" t="s">
         <v>592</v>
@@ -8719,7 +8728,7 @@
         <v>1141</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>1256</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
@@ -8733,7 +8742,7 @@
         <v>177</v>
       </c>
       <c r="E173" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F173" t="s">
         <v>593</v>
@@ -8745,7 +8754,7 @@
         <v>1141</v>
       </c>
       <c r="I173" s="1" t="s">
-        <v>1256</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.3">
@@ -8759,7 +8768,7 @@
         <v>178</v>
       </c>
       <c r="E174" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F174" t="s">
         <v>594</v>
@@ -8771,7 +8780,7 @@
         <v>1142</v>
       </c>
       <c r="I174" s="1" t="s">
-        <v>1256</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.3">
@@ -8785,7 +8794,7 @@
         <v>179</v>
       </c>
       <c r="E175" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F175" t="s">
         <v>595</v>
@@ -8797,7 +8806,7 @@
         <v>1142</v>
       </c>
       <c r="I175" s="1" t="s">
-        <v>1256</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.3">
@@ -8811,7 +8820,7 @@
         <v>180</v>
       </c>
       <c r="E176" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F176" t="s">
         <v>596</v>
@@ -8823,7 +8832,7 @@
         <v>1142</v>
       </c>
       <c r="I176" s="1" t="s">
-        <v>1256</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.3">
@@ -8837,7 +8846,7 @@
         <v>181</v>
       </c>
       <c r="E177" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F177" t="s">
         <v>597</v>
@@ -8849,7 +8858,7 @@
         <v>1142</v>
       </c>
       <c r="I177" s="1" t="s">
-        <v>1256</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.3">
@@ -8863,7 +8872,7 @@
         <v>182</v>
       </c>
       <c r="E178" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F178" t="s">
         <v>598</v>
@@ -8872,10 +8881,10 @@
         <v>961</v>
       </c>
       <c r="H178" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
       <c r="I178" s="1" t="s">
-        <v>1256</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.3">
@@ -8889,7 +8898,7 @@
         <v>183</v>
       </c>
       <c r="E179" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F179" t="s">
         <v>599</v>
@@ -8898,10 +8907,10 @@
         <v>892</v>
       </c>
       <c r="H179" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
       <c r="I179" s="1" t="s">
-        <v>1256</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.3">
@@ -8915,7 +8924,7 @@
         <v>184</v>
       </c>
       <c r="E180" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="F180" t="s">
         <v>600</v>
@@ -8927,7 +8936,7 @@
         <v>1143</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.3">
@@ -8941,7 +8950,7 @@
         <v>185</v>
       </c>
       <c r="E181" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="F181" t="s">
         <v>601</v>
@@ -8953,7 +8962,7 @@
         <v>1143</v>
       </c>
       <c r="I181" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.3">
@@ -8967,7 +8976,7 @@
         <v>186</v>
       </c>
       <c r="E182" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="F182" t="s">
         <v>602</v>
@@ -8979,7 +8988,7 @@
         <v>1143</v>
       </c>
       <c r="I182" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.3">
@@ -8993,7 +9002,7 @@
         <v>187</v>
       </c>
       <c r="E183" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="F183" t="s">
         <v>603</v>
@@ -9005,7 +9014,7 @@
         <v>1143</v>
       </c>
       <c r="I183" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.3">
@@ -9019,7 +9028,7 @@
         <v>188</v>
       </c>
       <c r="E184" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="F184" t="s">
         <v>604</v>
@@ -9031,7 +9040,7 @@
         <v>1139</v>
       </c>
       <c r="I184" s="1" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.3">
@@ -9045,7 +9054,7 @@
         <v>189</v>
       </c>
       <c r="E185" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="F185" t="s">
         <v>605</v>
@@ -9057,7 +9066,7 @@
         <v>1144</v>
       </c>
       <c r="I185" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.3">
@@ -9071,7 +9080,7 @@
         <v>190</v>
       </c>
       <c r="E186" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="F186" t="s">
         <v>606</v>
@@ -9083,7 +9092,7 @@
         <v>1145</v>
       </c>
       <c r="I186" s="1" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.3">
@@ -9097,7 +9106,7 @@
         <v>191</v>
       </c>
       <c r="E187" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="F187" t="s">
         <v>607</v>
@@ -9109,7 +9118,7 @@
         <v>1145</v>
       </c>
       <c r="I187" s="1" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.3">
@@ -9123,7 +9132,7 @@
         <v>192</v>
       </c>
       <c r="E188" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="F188" t="s">
         <v>608</v>
@@ -9135,7 +9144,7 @@
         <v>1145</v>
       </c>
       <c r="I188" s="1" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.3">
@@ -9149,7 +9158,7 @@
         <v>193</v>
       </c>
       <c r="E189" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="F189" t="s">
         <v>609</v>
@@ -9161,7 +9170,7 @@
         <v>1144</v>
       </c>
       <c r="I189" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.3">
@@ -9175,7 +9184,7 @@
         <v>194</v>
       </c>
       <c r="E190" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="F190" t="s">
         <v>610</v>
@@ -9187,7 +9196,7 @@
         <v>1144</v>
       </c>
       <c r="I190" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.3">
@@ -9201,7 +9210,7 @@
         <v>195</v>
       </c>
       <c r="E191" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="F191" t="s">
         <v>611</v>
@@ -9213,10 +9222,10 @@
         <v>1146</v>
       </c>
       <c r="I191" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="J191" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.3">
@@ -9230,7 +9239,7 @@
         <v>196</v>
       </c>
       <c r="E192" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="F192" t="s">
         <v>612</v>
@@ -9242,10 +9251,10 @@
         <v>1146</v>
       </c>
       <c r="I192" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="J192" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.3">
@@ -9259,7 +9268,7 @@
         <v>197</v>
       </c>
       <c r="E193" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="F193" t="s">
         <v>613</v>
@@ -9271,10 +9280,10 @@
         <v>1146</v>
       </c>
       <c r="I193" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="J193" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.3">
@@ -9288,7 +9297,7 @@
         <v>198</v>
       </c>
       <c r="E194" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="F194" t="s">
         <v>614</v>
@@ -9300,10 +9309,10 @@
         <v>1146</v>
       </c>
       <c r="I194" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="J194" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.3">
@@ -9317,7 +9326,7 @@
         <v>199</v>
       </c>
       <c r="E195" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="F195" t="s">
         <v>615</v>
@@ -9329,10 +9338,10 @@
         <v>1146</v>
       </c>
       <c r="I195" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="J195" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.3">
@@ -9346,7 +9355,7 @@
         <v>200</v>
       </c>
       <c r="E196" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="F196" t="s">
         <v>616</v>
@@ -9358,7 +9367,7 @@
         <v>1147</v>
       </c>
       <c r="I196" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.3">
@@ -9372,7 +9381,7 @@
         <v>201</v>
       </c>
       <c r="E197" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="F197" t="s">
         <v>617</v>
@@ -9384,7 +9393,7 @@
         <v>1147</v>
       </c>
       <c r="I197" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.3">
@@ -9398,7 +9407,7 @@
         <v>202</v>
       </c>
       <c r="E198" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="F198" t="s">
         <v>618</v>
@@ -9410,7 +9419,7 @@
         <v>1147</v>
       </c>
       <c r="I198" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.3">
@@ -9424,7 +9433,7 @@
         <v>203</v>
       </c>
       <c r="E199" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="F199" t="s">
         <v>619</v>
@@ -9436,7 +9445,7 @@
         <v>1147</v>
       </c>
       <c r="I199" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.3">
@@ -9450,7 +9459,7 @@
         <v>204</v>
       </c>
       <c r="E200" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="F200" t="s">
         <v>620</v>
@@ -9462,7 +9471,7 @@
         <v>1147</v>
       </c>
       <c r="I200" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.3">
@@ -9476,7 +9485,7 @@
         <v>205</v>
       </c>
       <c r="E201" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="F201" t="s">
         <v>621</v>
@@ -9488,7 +9497,7 @@
         <v>1148</v>
       </c>
       <c r="I201" s="1" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.3">
@@ -9502,7 +9511,7 @@
         <v>206</v>
       </c>
       <c r="E202" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="F202" t="s">
         <v>622</v>
@@ -9514,7 +9523,7 @@
         <v>1148</v>
       </c>
       <c r="I202" s="1" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.3">
@@ -9528,7 +9537,7 @@
         <v>207</v>
       </c>
       <c r="E203" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="F203" t="s">
         <v>623</v>
@@ -9540,7 +9549,7 @@
         <v>1149</v>
       </c>
       <c r="I203" s="1" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.3">
@@ -9554,7 +9563,7 @@
         <v>208</v>
       </c>
       <c r="E204" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="F204" t="s">
         <v>624</v>
@@ -9566,7 +9575,7 @@
         <v>1149</v>
       </c>
       <c r="I204" s="1" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.3">
@@ -9580,7 +9589,7 @@
         <v>209</v>
       </c>
       <c r="E205" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="F205" t="s">
         <v>625</v>
@@ -9592,7 +9601,7 @@
         <v>1149</v>
       </c>
       <c r="I205" s="1" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.3">
@@ -9606,7 +9615,7 @@
         <v>210</v>
       </c>
       <c r="E206" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F206" t="s">
         <v>626</v>
@@ -9618,7 +9627,7 @@
         <v>1150</v>
       </c>
       <c r="I206" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.3">
@@ -9632,7 +9641,7 @@
         <v>211</v>
       </c>
       <c r="E207" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F207" t="s">
         <v>627</v>
@@ -9644,7 +9653,7 @@
         <v>1150</v>
       </c>
       <c r="I207" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.3">
@@ -9658,7 +9667,7 @@
         <v>212</v>
       </c>
       <c r="E208" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F208" t="s">
         <v>628</v>
@@ -9667,10 +9676,10 @@
         <v>983</v>
       </c>
       <c r="H208" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
       <c r="I208" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.3">
@@ -9684,7 +9693,7 @@
         <v>213</v>
       </c>
       <c r="E209" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F209" t="s">
         <v>629</v>
@@ -9696,7 +9705,7 @@
         <v>1151</v>
       </c>
       <c r="I209" s="1" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.3">
@@ -9710,7 +9719,7 @@
         <v>214</v>
       </c>
       <c r="E210" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F210" t="s">
         <v>630</v>
@@ -9722,7 +9731,7 @@
         <v>1150</v>
       </c>
       <c r="I210" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.3">
@@ -9736,7 +9745,7 @@
         <v>215</v>
       </c>
       <c r="E211" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F211" t="s">
         <v>631</v>
@@ -9748,7 +9757,7 @@
         <v>1151</v>
       </c>
       <c r="I211" s="1" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.3">
@@ -9762,7 +9771,7 @@
         <v>216</v>
       </c>
       <c r="E212" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F212" t="s">
         <v>632</v>
@@ -9774,7 +9783,7 @@
         <v>1150</v>
       </c>
       <c r="I212" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.3">
@@ -9788,7 +9797,7 @@
         <v>217</v>
       </c>
       <c r="E213" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F213" t="s">
         <v>633</v>
@@ -9797,10 +9806,10 @@
         <v>986</v>
       </c>
       <c r="H213" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
       <c r="I213" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.3">
@@ -9814,7 +9823,7 @@
         <v>218</v>
       </c>
       <c r="E214" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F214" t="s">
         <v>634</v>
@@ -9826,7 +9835,7 @@
         <v>1152</v>
       </c>
       <c r="I214" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.3">
@@ -9840,7 +9849,7 @@
         <v>219</v>
       </c>
       <c r="E215" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F215" t="s">
         <v>635</v>
@@ -9852,7 +9861,7 @@
         <v>1152</v>
       </c>
       <c r="I215" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.3">
@@ -9866,7 +9875,7 @@
         <v>220</v>
       </c>
       <c r="E216" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F216" t="s">
         <v>636</v>
@@ -9878,7 +9887,7 @@
         <v>1103</v>
       </c>
       <c r="I216" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.3">
@@ -9892,7 +9901,7 @@
         <v>221</v>
       </c>
       <c r="E217" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F217" t="s">
         <v>637</v>
@@ -9901,10 +9910,10 @@
         <v>988</v>
       </c>
       <c r="H217" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
       <c r="I217" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.3">
@@ -9918,7 +9927,7 @@
         <v>222</v>
       </c>
       <c r="E218" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F218" t="s">
         <v>638</v>
@@ -9927,10 +9936,10 @@
         <v>953</v>
       </c>
       <c r="H218" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
       <c r="I218" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.3">
@@ -9944,7 +9953,7 @@
         <v>223</v>
       </c>
       <c r="E219" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F219" t="s">
         <v>639</v>
@@ -9956,7 +9965,7 @@
         <v>1103</v>
       </c>
       <c r="I219" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.3">
@@ -9970,7 +9979,7 @@
         <v>224</v>
       </c>
       <c r="E220" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F220" t="s">
         <v>640</v>
@@ -9982,7 +9991,7 @@
         <v>1103</v>
       </c>
       <c r="I220" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.3">
@@ -9996,7 +10005,7 @@
         <v>225</v>
       </c>
       <c r="E221" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F221" t="s">
         <v>641</v>
@@ -10008,7 +10017,7 @@
         <v>1103</v>
       </c>
       <c r="I221" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.3">
@@ -10022,7 +10031,7 @@
         <v>226</v>
       </c>
       <c r="E222" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F222" t="s">
         <v>642</v>
@@ -10031,10 +10040,10 @@
         <v>835</v>
       </c>
       <c r="H222" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="I222" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.3">
@@ -10048,7 +10057,7 @@
         <v>227</v>
       </c>
       <c r="E223" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F223" t="s">
         <v>643</v>
@@ -10057,10 +10066,10 @@
         <v>875</v>
       </c>
       <c r="H223" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
       <c r="I223" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.3">
@@ -10074,7 +10083,7 @@
         <v>228</v>
       </c>
       <c r="E224" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F224" t="s">
         <v>644</v>
@@ -10086,7 +10095,7 @@
         <v>1150</v>
       </c>
       <c r="I224" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.3">
@@ -10100,7 +10109,7 @@
         <v>229</v>
       </c>
       <c r="E225" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F225" t="s">
         <v>645</v>
@@ -10109,10 +10118,10 @@
         <v>991</v>
       </c>
       <c r="H225" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
       <c r="I225" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.3">
@@ -10126,7 +10135,7 @@
         <v>230</v>
       </c>
       <c r="E226" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F226" t="s">
         <v>646</v>
@@ -10138,7 +10147,7 @@
         <v>1151</v>
       </c>
       <c r="I226" s="1" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.3">
@@ -10152,7 +10161,7 @@
         <v>231</v>
       </c>
       <c r="E227" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F227" t="s">
         <v>647</v>
@@ -10164,7 +10173,7 @@
         <v>1152</v>
       </c>
       <c r="I227" s="1" t="s">
-        <v>1241</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.3">
@@ -10178,7 +10187,7 @@
         <v>232</v>
       </c>
       <c r="E228" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F228" t="s">
         <v>648</v>
@@ -10190,7 +10199,7 @@
         <v>1153</v>
       </c>
       <c r="I228" s="1" t="s">
-        <v>1247</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.3">
@@ -10204,7 +10213,7 @@
         <v>233</v>
       </c>
       <c r="E229" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F229" t="s">
         <v>649</v>
@@ -10216,7 +10225,7 @@
         <v>1153</v>
       </c>
       <c r="I229" s="1" t="s">
-        <v>1247</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.3">
@@ -10230,7 +10239,7 @@
         <v>234</v>
       </c>
       <c r="E230" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F230" t="s">
         <v>650</v>
@@ -10242,7 +10251,7 @@
         <v>1153</v>
       </c>
       <c r="I230" s="1" t="s">
-        <v>1247</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.3">
@@ -10256,7 +10265,7 @@
         <v>235</v>
       </c>
       <c r="E231" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F231" t="s">
         <v>651</v>
@@ -10268,7 +10277,7 @@
         <v>1153</v>
       </c>
       <c r="I231" s="1" t="s">
-        <v>1247</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.3">
@@ -10282,7 +10291,7 @@
         <v>236</v>
       </c>
       <c r="E232" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F232" t="s">
         <v>652</v>
@@ -10294,7 +10303,7 @@
         <v>1153</v>
       </c>
       <c r="I232" s="1" t="s">
-        <v>1247</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.3">
@@ -10308,7 +10317,7 @@
         <v>237</v>
       </c>
       <c r="E233" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F233" t="s">
         <v>653</v>
@@ -10320,7 +10329,7 @@
         <v>1153</v>
       </c>
       <c r="I233" s="1" t="s">
-        <v>1247</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.3">
@@ -10334,7 +10343,7 @@
         <v>238</v>
       </c>
       <c r="E234" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F234" t="s">
         <v>654</v>
@@ -10346,7 +10355,7 @@
         <v>1090</v>
       </c>
       <c r="I234" s="1" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.3">
@@ -10360,7 +10369,7 @@
         <v>239</v>
       </c>
       <c r="E235" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F235" t="s">
         <v>655</v>
@@ -10369,10 +10378,10 @@
         <v>945</v>
       </c>
       <c r="H235" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="I235" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.3">
@@ -10386,7 +10395,7 @@
         <v>240</v>
       </c>
       <c r="E236" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F236" t="s">
         <v>656</v>
@@ -10398,7 +10407,7 @@
         <v>1154</v>
       </c>
       <c r="I236" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.3">
@@ -10412,7 +10421,7 @@
         <v>241</v>
       </c>
       <c r="E237" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F237" t="s">
         <v>657</v>
@@ -10424,7 +10433,7 @@
         <v>1154</v>
       </c>
       <c r="I237" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.3">
@@ -10438,7 +10447,7 @@
         <v>242</v>
       </c>
       <c r="E238" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F238" t="s">
         <v>658</v>
@@ -10450,7 +10459,7 @@
         <v>1155</v>
       </c>
       <c r="I238" s="1" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.3">
@@ -10464,7 +10473,7 @@
         <v>243</v>
       </c>
       <c r="E239" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F239" t="s">
         <v>659</v>
@@ -10476,7 +10485,7 @@
         <v>1156</v>
       </c>
       <c r="I239" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.3">
@@ -10490,7 +10499,7 @@
         <v>244</v>
       </c>
       <c r="E240" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F240" t="s">
         <v>660</v>
@@ -10499,10 +10508,10 @@
         <v>1002</v>
       </c>
       <c r="H240" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="I240" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.3">
@@ -10516,7 +10525,7 @@
         <v>245</v>
       </c>
       <c r="E241" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F241" t="s">
         <v>661</v>
@@ -10528,7 +10537,7 @@
         <v>1157</v>
       </c>
       <c r="I241" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.3">
@@ -10542,7 +10551,7 @@
         <v>246</v>
       </c>
       <c r="E242" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F242" t="s">
         <v>662</v>
@@ -10554,7 +10563,7 @@
         <v>1157</v>
       </c>
       <c r="I242" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.3">
@@ -10568,7 +10577,7 @@
         <v>247</v>
       </c>
       <c r="E243" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F243" t="s">
         <v>663</v>
@@ -10580,7 +10589,7 @@
         <v>1157</v>
       </c>
       <c r="I243" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.3">
@@ -10594,7 +10603,7 @@
         <v>248</v>
       </c>
       <c r="E244" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F244" t="s">
         <v>664</v>
@@ -10606,7 +10615,7 @@
         <v>1155</v>
       </c>
       <c r="I244" s="1" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.3">
@@ -10620,7 +10629,7 @@
         <v>249</v>
       </c>
       <c r="E245" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F245" t="s">
         <v>665</v>
@@ -10632,7 +10641,7 @@
         <v>1155</v>
       </c>
       <c r="I245" s="1" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.3">
@@ -10646,7 +10655,7 @@
         <v>250</v>
       </c>
       <c r="E246" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F246" t="s">
         <v>666</v>
@@ -10655,10 +10664,10 @@
         <v>935</v>
       </c>
       <c r="H246" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="I246" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.3">
@@ -10672,7 +10681,7 @@
         <v>251</v>
       </c>
       <c r="E247" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F247" t="s">
         <v>667</v>
@@ -10681,10 +10690,10 @@
         <v>1006</v>
       </c>
       <c r="H247" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="I247" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.3">
@@ -10698,7 +10707,7 @@
         <v>252</v>
       </c>
       <c r="E248" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F248" t="s">
         <v>668</v>
@@ -10707,10 +10716,10 @@
         <v>1007</v>
       </c>
       <c r="H248" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="I248" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.3">
@@ -10724,7 +10733,7 @@
         <v>253</v>
       </c>
       <c r="E249" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F249" t="s">
         <v>669</v>
@@ -10733,10 +10742,10 @@
         <v>1004</v>
       </c>
       <c r="H249" t="s">
-        <v>1221</v>
+        <v>1217</v>
       </c>
       <c r="I249" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.3">
@@ -10750,7 +10759,7 @@
         <v>254</v>
       </c>
       <c r="E250" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F250" t="s">
         <v>670</v>
@@ -10762,7 +10771,7 @@
         <v>1156</v>
       </c>
       <c r="I250" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.3">
@@ -10776,7 +10785,7 @@
         <v>255</v>
       </c>
       <c r="E251" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F251" t="s">
         <v>671</v>
@@ -10785,10 +10794,10 @@
         <v>885</v>
       </c>
       <c r="H251" t="s">
-        <v>1159</v>
+        <v>1254</v>
       </c>
       <c r="I251" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.3">
@@ -10802,7 +10811,7 @@
         <v>256</v>
       </c>
       <c r="E252" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F252" t="s">
         <v>672</v>
@@ -10811,10 +10820,10 @@
         <v>865</v>
       </c>
       <c r="H252" t="s">
-        <v>1159</v>
+        <v>1254</v>
       </c>
       <c r="I252" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.3">
@@ -10828,7 +10837,7 @@
         <v>257</v>
       </c>
       <c r="E253" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F253" t="s">
         <v>673</v>
@@ -10840,7 +10849,7 @@
         <v>1156</v>
       </c>
       <c r="I253" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.3">
@@ -10854,7 +10863,7 @@
         <v>258</v>
       </c>
       <c r="E254" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F254" t="s">
         <v>674</v>
@@ -10863,10 +10872,10 @@
         <v>982</v>
       </c>
       <c r="H254" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="I254" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.3">
@@ -10880,7 +10889,7 @@
         <v>259</v>
       </c>
       <c r="E255" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F255" t="s">
         <v>675</v>
@@ -10889,10 +10898,10 @@
         <v>1009</v>
       </c>
       <c r="H255" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="I255" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.3">
@@ -10906,7 +10915,7 @@
         <v>260</v>
       </c>
       <c r="E256" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F256" t="s">
         <v>676</v>
@@ -10915,10 +10924,10 @@
         <v>836</v>
       </c>
       <c r="H256" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="I256" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.3">
@@ -10932,7 +10941,7 @@
         <v>261</v>
       </c>
       <c r="E257" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F257" t="s">
         <v>677</v>
@@ -10944,7 +10953,7 @@
         <v>1156</v>
       </c>
       <c r="I257" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.3">
@@ -10958,7 +10967,7 @@
         <v>262</v>
       </c>
       <c r="E258" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F258" t="s">
         <v>678</v>
@@ -10967,10 +10976,10 @@
         <v>991</v>
       </c>
       <c r="H258" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="I258" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.3">
@@ -10984,7 +10993,7 @@
         <v>263</v>
       </c>
       <c r="E259" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F259" t="s">
         <v>679</v>
@@ -10996,7 +11005,7 @@
         <v>1108</v>
       </c>
       <c r="I259" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.3">
@@ -11010,7 +11019,7 @@
         <v>264</v>
       </c>
       <c r="E260" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F260" t="s">
         <v>680</v>
@@ -11022,7 +11031,7 @@
         <v>1108</v>
       </c>
       <c r="I260" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.3">
@@ -11036,7 +11045,7 @@
         <v>265</v>
       </c>
       <c r="E261" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F261" t="s">
         <v>681</v>
@@ -11048,7 +11057,7 @@
         <v>1108</v>
       </c>
       <c r="I261" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.3">
@@ -11062,7 +11071,7 @@
         <v>266</v>
       </c>
       <c r="E262" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F262" t="s">
         <v>682</v>
@@ -11074,7 +11083,7 @@
         <v>1108</v>
       </c>
       <c r="I262" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.3">
@@ -11088,7 +11097,7 @@
         <v>267</v>
       </c>
       <c r="E263" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F263" t="s">
         <v>683</v>
@@ -11097,10 +11106,10 @@
         <v>1014</v>
       </c>
       <c r="H263" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="I263" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.3">
@@ -11114,7 +11123,7 @@
         <v>268</v>
       </c>
       <c r="E264" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F264" t="s">
         <v>684</v>
@@ -11123,10 +11132,10 @@
         <v>1015</v>
       </c>
       <c r="H264" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="I264" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.3">
@@ -11140,7 +11149,7 @@
         <v>269</v>
       </c>
       <c r="E265" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F265" t="s">
         <v>685</v>
@@ -11149,10 +11158,10 @@
         <v>1016</v>
       </c>
       <c r="H265" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
       <c r="I265" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.3">
@@ -11166,7 +11175,7 @@
         <v>270</v>
       </c>
       <c r="E266" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F266" t="s">
         <v>686</v>
@@ -11175,10 +11184,10 @@
         <v>1017</v>
       </c>
       <c r="H266" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
       <c r="I266" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.3">
@@ -11192,7 +11201,7 @@
         <v>271</v>
       </c>
       <c r="E267" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F267" t="s">
         <v>687</v>
@@ -11201,10 +11210,10 @@
         <v>1018</v>
       </c>
       <c r="H267" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
       <c r="I267" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.3">
@@ -11218,7 +11227,7 @@
         <v>272</v>
       </c>
       <c r="E268" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F268" t="s">
         <v>688</v>
@@ -11230,7 +11239,7 @@
         <v>1110</v>
       </c>
       <c r="I268" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.3">
@@ -11244,7 +11253,7 @@
         <v>273</v>
       </c>
       <c r="E269" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F269" t="s">
         <v>689</v>
@@ -11256,7 +11265,7 @@
         <v>1110</v>
       </c>
       <c r="I269" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.3">
@@ -11270,7 +11279,7 @@
         <v>274</v>
       </c>
       <c r="E270" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F270" t="s">
         <v>690</v>
@@ -11282,7 +11291,7 @@
         <v>1110</v>
       </c>
       <c r="I270" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.3">
@@ -11296,7 +11305,7 @@
         <v>275</v>
       </c>
       <c r="E271" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F271" t="s">
         <v>691</v>
@@ -11305,10 +11314,10 @@
         <v>1004</v>
       </c>
       <c r="H271" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="I271" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.3">
@@ -11322,7 +11331,7 @@
         <v>276</v>
       </c>
       <c r="E272" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F272" t="s">
         <v>692</v>
@@ -11331,10 +11340,10 @@
         <v>836</v>
       </c>
       <c r="H272" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="I272" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.3">
@@ -11348,7 +11357,7 @@
         <v>277</v>
       </c>
       <c r="E273" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F273" t="s">
         <v>693</v>
@@ -11357,10 +11366,10 @@
         <v>1020</v>
       </c>
       <c r="H273" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="I273" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.3">
@@ -11374,7 +11383,7 @@
         <v>278</v>
       </c>
       <c r="E274" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F274" t="s">
         <v>694</v>
@@ -11383,10 +11392,10 @@
         <v>890</v>
       </c>
       <c r="H274" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="I274" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.3">
@@ -11400,7 +11409,7 @@
         <v>279</v>
       </c>
       <c r="E275" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F275" t="s">
         <v>695</v>
@@ -11409,10 +11418,10 @@
         <v>1021</v>
       </c>
       <c r="H275" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="I275" s="1" t="s">
-        <v>1247</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.3">
@@ -11426,7 +11435,7 @@
         <v>280</v>
       </c>
       <c r="E276" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F276" t="s">
         <v>696</v>
@@ -11438,7 +11447,7 @@
         <v>1108</v>
       </c>
       <c r="I276" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.3">
@@ -11452,7 +11461,7 @@
         <v>281</v>
       </c>
       <c r="E277" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F277" t="s">
         <v>697</v>
@@ -11464,7 +11473,7 @@
         <v>1108</v>
       </c>
       <c r="I277" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.3">
@@ -11478,7 +11487,7 @@
         <v>282</v>
       </c>
       <c r="E278" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F278" t="s">
         <v>698</v>
@@ -11487,10 +11496,10 @@
         <v>1023</v>
       </c>
       <c r="H278" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="I278" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.3">
@@ -11504,7 +11513,7 @@
         <v>283</v>
       </c>
       <c r="E279" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F279" t="s">
         <v>699</v>
@@ -11513,10 +11522,10 @@
         <v>1024</v>
       </c>
       <c r="H279" t="s">
-        <v>1253</v>
+        <v>1246</v>
       </c>
       <c r="I279" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.3">
@@ -11533,7 +11542,7 @@
         <v>284</v>
       </c>
       <c r="E280" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F280" t="s">
         <v>700</v>
@@ -11542,10 +11551,10 @@
         <v>954</v>
       </c>
       <c r="H280" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="I280" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.3">
@@ -11559,7 +11568,7 @@
         <v>285</v>
       </c>
       <c r="E281" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F281" t="s">
         <v>701</v>
@@ -11568,10 +11577,10 @@
         <v>1025</v>
       </c>
       <c r="H281" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="I281" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.3">
@@ -11588,7 +11597,7 @@
         <v>286</v>
       </c>
       <c r="E282" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F282" t="s">
         <v>702</v>
@@ -11597,10 +11606,10 @@
         <v>953</v>
       </c>
       <c r="H282" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="I282" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.3">
@@ -11614,7 +11623,7 @@
         <v>287</v>
       </c>
       <c r="E283" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F283" t="s">
         <v>703</v>
@@ -11623,10 +11632,10 @@
         <v>1026</v>
       </c>
       <c r="H283" t="s">
-        <v>1253</v>
+        <v>1246</v>
       </c>
       <c r="I283" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.3">
@@ -11640,7 +11649,7 @@
         <v>288</v>
       </c>
       <c r="E284" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F284" t="s">
         <v>704</v>
@@ -11649,10 +11658,10 @@
         <v>950</v>
       </c>
       <c r="H284" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="I284" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.3">
@@ -11666,7 +11675,7 @@
         <v>289</v>
       </c>
       <c r="E285" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F285" t="s">
         <v>705</v>
@@ -11675,10 +11684,10 @@
         <v>1027</v>
       </c>
       <c r="H285" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="I285" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.3">
@@ -11692,7 +11701,7 @@
         <v>290</v>
       </c>
       <c r="E286" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F286" t="s">
         <v>706</v>
@@ -11701,13 +11710,13 @@
         <v>1028</v>
       </c>
       <c r="H286" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="I286" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="J286" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.3">
@@ -11721,7 +11730,7 @@
         <v>291</v>
       </c>
       <c r="E287" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F287" t="s">
         <v>707</v>
@@ -11730,13 +11739,13 @@
         <v>1029</v>
       </c>
       <c r="H287" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="I287" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="J287" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.3">
@@ -11750,7 +11759,7 @@
         <v>292</v>
       </c>
       <c r="E288" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F288" t="s">
         <v>708</v>
@@ -11759,13 +11768,13 @@
         <v>849</v>
       </c>
       <c r="H288" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="I288" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="J288" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.3">
@@ -11779,7 +11788,7 @@
         <v>293</v>
       </c>
       <c r="E289" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F289" t="s">
         <v>709</v>
@@ -11788,10 +11797,10 @@
         <v>835</v>
       </c>
       <c r="H289" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="I289" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.3">
@@ -11805,7 +11814,7 @@
         <v>294</v>
       </c>
       <c r="E290" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F290" t="s">
         <v>710</v>
@@ -11814,10 +11823,10 @@
         <v>1030</v>
       </c>
       <c r="H290" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="I290" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.3">
@@ -11831,7 +11840,7 @@
         <v>295</v>
       </c>
       <c r="E291" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F291" t="s">
         <v>711</v>
@@ -11840,10 +11849,10 @@
         <v>1031</v>
       </c>
       <c r="H291" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="I291" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.3">
@@ -11857,7 +11866,7 @@
         <v>296</v>
       </c>
       <c r="E292" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F292" t="s">
         <v>712</v>
@@ -11866,10 +11875,10 @@
         <v>1032</v>
       </c>
       <c r="H292" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="I292" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.3">
@@ -11883,7 +11892,7 @@
         <v>297</v>
       </c>
       <c r="E293" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F293" t="s">
         <v>713</v>
@@ -11892,10 +11901,10 @@
         <v>1033</v>
       </c>
       <c r="H293" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="I293" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.3">
@@ -11909,7 +11918,7 @@
         <v>298</v>
       </c>
       <c r="E294" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F294" t="s">
         <v>714</v>
@@ -11918,10 +11927,10 @@
         <v>835</v>
       </c>
       <c r="H294" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="I294" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.3">
@@ -11935,7 +11944,7 @@
         <v>299</v>
       </c>
       <c r="E295" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F295" t="s">
         <v>715</v>
@@ -11944,13 +11953,13 @@
         <v>896</v>
       </c>
       <c r="H295" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="I295" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="J295" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.3">
@@ -11964,7 +11973,7 @@
         <v>300</v>
       </c>
       <c r="E296" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F296" t="s">
         <v>716</v>
@@ -11973,10 +11982,10 @@
         <v>893</v>
       </c>
       <c r="H296" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="I296" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.3">
@@ -11990,7 +11999,7 @@
         <v>301</v>
       </c>
       <c r="E297" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F297" t="s">
         <v>717</v>
@@ -11999,10 +12008,10 @@
         <v>891</v>
       </c>
       <c r="H297" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="I297" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.3">
@@ -12016,7 +12025,7 @@
         <v>302</v>
       </c>
       <c r="E298" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F298" t="s">
         <v>718</v>
@@ -12025,10 +12034,10 @@
         <v>1034</v>
       </c>
       <c r="H298" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="I298" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.3">
@@ -12042,7 +12051,7 @@
         <v>303</v>
       </c>
       <c r="E299" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F299" t="s">
         <v>719</v>
@@ -12051,10 +12060,10 @@
         <v>1035</v>
       </c>
       <c r="H299" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="I299" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.3">
@@ -12068,7 +12077,7 @@
         <v>304</v>
       </c>
       <c r="E300" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F300" t="s">
         <v>720</v>
@@ -12077,10 +12086,10 @@
         <v>1036</v>
       </c>
       <c r="H300" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="I300" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.3">
@@ -12094,7 +12103,7 @@
         <v>305</v>
       </c>
       <c r="E301" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F301" t="s">
         <v>721</v>
@@ -12103,10 +12112,10 @@
         <v>1037</v>
       </c>
       <c r="H301" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="I301" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.3">
@@ -12120,7 +12129,7 @@
         <v>306</v>
       </c>
       <c r="E302" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F302" t="s">
         <v>722</v>
@@ -12129,10 +12138,10 @@
         <v>836</v>
       </c>
       <c r="H302" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="I302" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.3">
@@ -12146,7 +12155,7 @@
         <v>307</v>
       </c>
       <c r="E303" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F303" t="s">
         <v>723</v>
@@ -12155,10 +12164,10 @@
         <v>1038</v>
       </c>
       <c r="H303" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="I303" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.3">
@@ -12172,7 +12181,7 @@
         <v>308</v>
       </c>
       <c r="E304" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F304" t="s">
         <v>724</v>
@@ -12181,10 +12190,10 @@
         <v>836</v>
       </c>
       <c r="H304" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="I304" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.3">
@@ -12198,7 +12207,7 @@
         <v>309</v>
       </c>
       <c r="E305" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F305" t="s">
         <v>725</v>
@@ -12207,10 +12216,10 @@
         <v>1039</v>
       </c>
       <c r="H305" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="I305" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.3">
@@ -12224,7 +12233,7 @@
         <v>310</v>
       </c>
       <c r="E306" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F306" t="s">
         <v>726</v>
@@ -12233,10 +12242,10 @@
         <v>888</v>
       </c>
       <c r="H306" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="I306" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.3">
@@ -12250,7 +12259,7 @@
         <v>311</v>
       </c>
       <c r="E307" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F307" t="s">
         <v>727</v>
@@ -12259,10 +12268,10 @@
         <v>835</v>
       </c>
       <c r="H307" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="I307" s="1" t="s">
-        <v>1241</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.3">
@@ -12276,7 +12285,7 @@
         <v>312</v>
       </c>
       <c r="E308" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F308" t="s">
         <v>728</v>
@@ -12285,10 +12294,10 @@
         <v>1040</v>
       </c>
       <c r="H308" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="I308" s="1" t="s">
-        <v>1241</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.3">
@@ -12302,7 +12311,7 @@
         <v>313</v>
       </c>
       <c r="E309" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F309" t="s">
         <v>729</v>
@@ -12311,10 +12320,10 @@
         <v>1041</v>
       </c>
       <c r="H309" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="I309" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.3">
@@ -12328,7 +12337,7 @@
         <v>314</v>
       </c>
       <c r="E310" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F310" t="s">
         <v>730</v>
@@ -12337,10 +12346,10 @@
         <v>883</v>
       </c>
       <c r="H310" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="I310" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.3">
@@ -12357,7 +12366,7 @@
         <v>315</v>
       </c>
       <c r="E311" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F311" t="s">
         <v>731</v>
@@ -12366,10 +12375,10 @@
         <v>954</v>
       </c>
       <c r="H311" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="I311" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.3">
@@ -12383,7 +12392,7 @@
         <v>316</v>
       </c>
       <c r="E312" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F312" t="s">
         <v>732</v>
@@ -12392,10 +12401,10 @@
         <v>836</v>
       </c>
       <c r="H312" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="I312" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.3">
@@ -12409,7 +12418,7 @@
         <v>317</v>
       </c>
       <c r="E313" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F313" t="s">
         <v>733</v>
@@ -12418,10 +12427,10 @@
         <v>836</v>
       </c>
       <c r="H313" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="I313" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.3">
@@ -12435,7 +12444,7 @@
         <v>318</v>
       </c>
       <c r="E314" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F314" t="s">
         <v>734</v>
@@ -12444,10 +12453,10 @@
         <v>1004</v>
       </c>
       <c r="H314" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="I314" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.3">
@@ -12461,7 +12470,7 @@
         <v>319</v>
       </c>
       <c r="E315" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F315" t="s">
         <v>735</v>
@@ -12470,10 +12479,10 @@
         <v>3</v>
       </c>
       <c r="H315" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="I315" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.3">
@@ -12487,7 +12496,7 @@
         <v>320</v>
       </c>
       <c r="E316" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F316" t="s">
         <v>736</v>
@@ -12496,10 +12505,10 @@
         <v>1042</v>
       </c>
       <c r="H316" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="I316" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.3">
@@ -12513,7 +12522,7 @@
         <v>321</v>
       </c>
       <c r="E317" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F317" t="s">
         <v>737</v>
@@ -12522,10 +12531,10 @@
         <v>1043</v>
       </c>
       <c r="H317" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="I317" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.3">
@@ -12539,7 +12548,7 @@
         <v>322</v>
       </c>
       <c r="E318" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F318" t="s">
         <v>738</v>
@@ -12548,10 +12557,10 @@
         <v>864</v>
       </c>
       <c r="H318" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="I318" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.3">
@@ -12565,7 +12574,7 @@
         <v>323</v>
       </c>
       <c r="E319" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F319" t="s">
         <v>739</v>
@@ -12574,10 +12583,10 @@
         <v>835</v>
       </c>
       <c r="H319" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="I319" s="1" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.3">
@@ -12594,7 +12603,7 @@
         <v>324</v>
       </c>
       <c r="E320" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F320" t="s">
         <v>740</v>
@@ -12603,10 +12612,10 @@
         <v>835</v>
       </c>
       <c r="H320" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="I320" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.3">
@@ -12620,7 +12629,7 @@
         <v>325</v>
       </c>
       <c r="E321" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F321" t="s">
         <v>741</v>
@@ -12629,10 +12638,10 @@
         <v>835</v>
       </c>
       <c r="H321" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="I321" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.3">
@@ -12646,7 +12655,7 @@
         <v>326</v>
       </c>
       <c r="E322" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F322" t="s">
         <v>742</v>
@@ -12655,10 +12664,10 @@
         <v>897</v>
       </c>
       <c r="H322" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="I322" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.3">
@@ -12672,7 +12681,7 @@
         <v>327</v>
       </c>
       <c r="E323" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F323" t="s">
         <v>743</v>
@@ -12681,10 +12690,10 @@
         <v>836</v>
       </c>
       <c r="H323" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="I323" s="1" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.3">
@@ -12698,7 +12707,7 @@
         <v>328</v>
       </c>
       <c r="E324" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F324" t="s">
         <v>744</v>
@@ -12707,10 +12716,10 @@
         <v>1044</v>
       </c>
       <c r="H324" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="I324" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.3">
@@ -12724,7 +12733,7 @@
         <v>329</v>
       </c>
       <c r="E325" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F325" t="s">
         <v>745</v>
@@ -12733,10 +12742,10 @@
         <v>1004</v>
       </c>
       <c r="H325" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="I325" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.3">
@@ -12750,7 +12759,7 @@
         <v>330</v>
       </c>
       <c r="E326" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F326" t="s">
         <v>746</v>
@@ -12759,10 +12768,10 @@
         <v>865</v>
       </c>
       <c r="H326" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="I326" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.3">
@@ -12776,7 +12785,7 @@
         <v>331</v>
       </c>
       <c r="E327" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F327" t="s">
         <v>747</v>
@@ -12785,10 +12794,10 @@
         <v>1045</v>
       </c>
       <c r="H327" t="s">
-        <v>1246</v>
+        <v>1239</v>
       </c>
       <c r="I327" s="1" t="s">
-        <v>1247</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.3">
@@ -12802,7 +12811,7 @@
         <v>332</v>
       </c>
       <c r="E328" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F328" t="s">
         <v>748</v>
@@ -12811,10 +12820,10 @@
         <v>1046</v>
       </c>
       <c r="H328" t="s">
-        <v>1246</v>
+        <v>1239</v>
       </c>
       <c r="I328" s="1" t="s">
-        <v>1247</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.3">
@@ -12828,7 +12837,7 @@
         <v>333</v>
       </c>
       <c r="E329" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F329" t="s">
         <v>749</v>
@@ -12837,10 +12846,10 @@
         <v>939</v>
       </c>
       <c r="H329" t="s">
-        <v>1246</v>
+        <v>1239</v>
       </c>
       <c r="I329" s="1" t="s">
-        <v>1247</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.3">
@@ -12854,7 +12863,7 @@
         <v>334</v>
       </c>
       <c r="E330" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F330" t="s">
         <v>750</v>
@@ -12863,10 +12872,10 @@
         <v>1047</v>
       </c>
       <c r="H330" t="s">
-        <v>1246</v>
+        <v>1239</v>
       </c>
       <c r="I330" s="1" t="s">
-        <v>1247</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.3">
@@ -12880,7 +12889,7 @@
         <v>335</v>
       </c>
       <c r="E331" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F331" t="s">
         <v>751</v>
@@ -12889,10 +12898,10 @@
         <v>1048</v>
       </c>
       <c r="H331" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="I331" s="1" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.3">
@@ -12906,7 +12915,7 @@
         <v>336</v>
       </c>
       <c r="E332" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F332" t="s">
         <v>752</v>
@@ -12915,10 +12924,10 @@
         <v>1049</v>
       </c>
       <c r="H332" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="I332" s="1" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.3">
@@ -12932,7 +12941,7 @@
         <v>337</v>
       </c>
       <c r="E333" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F333" t="s">
         <v>753</v>
@@ -12941,10 +12950,10 @@
         <v>1039</v>
       </c>
       <c r="H333" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="I333" s="1" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.3">
@@ -12958,7 +12967,7 @@
         <v>338</v>
       </c>
       <c r="E334" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F334" t="s">
         <v>754</v>
@@ -12967,10 +12976,10 @@
         <v>1050</v>
       </c>
       <c r="H334" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="I334" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.3">
@@ -12984,7 +12993,7 @@
         <v>339</v>
       </c>
       <c r="E335" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F335" t="s">
         <v>755</v>
@@ -12993,10 +13002,10 @@
         <v>895</v>
       </c>
       <c r="H335" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="I335" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.3">
@@ -13010,7 +13019,7 @@
         <v>340</v>
       </c>
       <c r="E336" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F336" t="s">
         <v>756</v>
@@ -13019,10 +13028,10 @@
         <v>966</v>
       </c>
       <c r="H336" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="I336" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="337" spans="1:12" x14ac:dyDescent="0.3">
@@ -13039,7 +13048,7 @@
         <v>341</v>
       </c>
       <c r="E337" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F337" t="s">
         <v>757</v>
@@ -13048,10 +13057,10 @@
         <v>1051</v>
       </c>
       <c r="H337" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="I337" s="1" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="338" spans="1:12" x14ac:dyDescent="0.3">
@@ -13068,7 +13077,7 @@
         <v>342</v>
       </c>
       <c r="E338" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F338" t="s">
         <v>758</v>
@@ -13077,10 +13086,10 @@
         <v>896</v>
       </c>
       <c r="H338" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="I338" s="1" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="339" spans="1:12" x14ac:dyDescent="0.3">
@@ -13097,7 +13106,7 @@
         <v>343</v>
       </c>
       <c r="E339" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F339" t="s">
         <v>759</v>
@@ -13106,10 +13115,10 @@
         <v>1052</v>
       </c>
       <c r="H339" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="I339" s="1" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="340" spans="1:12" x14ac:dyDescent="0.3">
@@ -13123,7 +13132,7 @@
         <v>344</v>
       </c>
       <c r="E340" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F340" t="s">
         <v>760</v>
@@ -13132,10 +13141,10 @@
         <v>1053</v>
       </c>
       <c r="H340" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="I340" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="341" spans="1:12" x14ac:dyDescent="0.3">
@@ -13149,7 +13158,7 @@
         <v>345</v>
       </c>
       <c r="E341" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F341" t="s">
         <v>761</v>
@@ -13158,10 +13167,10 @@
         <v>1054</v>
       </c>
       <c r="H341" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="I341" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="342" spans="1:12" x14ac:dyDescent="0.3">
@@ -13175,7 +13184,7 @@
         <v>346</v>
       </c>
       <c r="E342" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F342" t="s">
         <v>762</v>
@@ -13184,16 +13193,16 @@
         <v>907</v>
       </c>
       <c r="H342" t="s">
+        <v>1180</v>
+      </c>
+      <c r="I342" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="K342" t="s">
         <v>1181</v>
       </c>
-      <c r="I342" s="1" t="s">
-        <v>1241</v>
-      </c>
-      <c r="K342" t="s">
-        <v>1182</v>
-      </c>
       <c r="L342" s="1" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="343" spans="1:12" x14ac:dyDescent="0.3">
@@ -13207,7 +13216,7 @@
         <v>347</v>
       </c>
       <c r="E343" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F343" t="s">
         <v>763</v>
@@ -13216,10 +13225,10 @@
         <v>1055</v>
       </c>
       <c r="H343" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="I343" s="1" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="344" spans="1:12" x14ac:dyDescent="0.3">
@@ -13233,7 +13242,7 @@
         <v>348</v>
       </c>
       <c r="E344" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F344" t="s">
         <v>764</v>
@@ -13242,10 +13251,10 @@
         <v>835</v>
       </c>
       <c r="H344" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="I344" s="1" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="345" spans="1:12" x14ac:dyDescent="0.3">
@@ -13259,7 +13268,7 @@
         <v>349</v>
       </c>
       <c r="E345" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F345" t="s">
         <v>765</v>
@@ -13268,10 +13277,10 @@
         <v>836</v>
       </c>
       <c r="H345" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="I345" s="1" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.3">
@@ -13285,7 +13294,7 @@
         <v>350</v>
       </c>
       <c r="E346" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F346" t="s">
         <v>762</v>
@@ -13294,16 +13303,16 @@
         <v>907</v>
       </c>
       <c r="H346" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="I346" s="1" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
       <c r="K346" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="L346" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.3">
@@ -13317,7 +13326,7 @@
         <v>351</v>
       </c>
       <c r="E347" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F347" t="s">
         <v>766</v>
@@ -13326,10 +13335,10 @@
         <v>836</v>
       </c>
       <c r="H347" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="I347" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.3">
@@ -13343,7 +13352,7 @@
         <v>352</v>
       </c>
       <c r="E348" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F348" t="s">
         <v>767</v>
@@ -13352,10 +13361,10 @@
         <v>835</v>
       </c>
       <c r="H348" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="I348" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.3">
@@ -13369,7 +13378,7 @@
         <v>353</v>
       </c>
       <c r="E349" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F349" t="s">
         <v>768</v>
@@ -13378,10 +13387,10 @@
         <v>877</v>
       </c>
       <c r="H349" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="I349" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.3">
@@ -13398,7 +13407,7 @@
         <v>354</v>
       </c>
       <c r="E350" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F350" t="s">
         <v>769</v>
@@ -13410,7 +13419,7 @@
         <v>1158</v>
       </c>
       <c r="I350" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="351" spans="1:12" x14ac:dyDescent="0.3">
@@ -13424,7 +13433,7 @@
         <v>355</v>
       </c>
       <c r="E351" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F351" t="s">
         <v>770</v>
@@ -13436,7 +13445,7 @@
         <v>1158</v>
       </c>
       <c r="I351" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="352" spans="1:12" x14ac:dyDescent="0.3">
@@ -13450,7 +13459,7 @@
         <v>356</v>
       </c>
       <c r="E352" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F352" t="s">
         <v>771</v>
@@ -13462,7 +13471,7 @@
         <v>1158</v>
       </c>
       <c r="I352" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.3">
@@ -13476,7 +13485,7 @@
         <v>357</v>
       </c>
       <c r="E353" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F353" t="s">
         <v>772</v>
@@ -13488,7 +13497,7 @@
         <v>1158</v>
       </c>
       <c r="I353" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.3">
@@ -13502,7 +13511,7 @@
         <v>358</v>
       </c>
       <c r="E354" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F354" t="s">
         <v>773</v>
@@ -13514,7 +13523,7 @@
         <v>1158</v>
       </c>
       <c r="I354" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.3">
@@ -13528,7 +13537,7 @@
         <v>359</v>
       </c>
       <c r="E355" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F355" t="s">
         <v>774</v>
@@ -13537,10 +13546,10 @@
         <v>1059</v>
       </c>
       <c r="H355" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="I355" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.3">
@@ -13554,7 +13563,7 @@
         <v>360</v>
       </c>
       <c r="E356" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F356" t="s">
         <v>775</v>
@@ -13563,10 +13572,10 @@
         <v>1060</v>
       </c>
       <c r="H356" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="I356" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.3">
@@ -13580,7 +13589,7 @@
         <v>361</v>
       </c>
       <c r="E357" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F357" t="s">
         <v>776</v>
@@ -13589,10 +13598,10 @@
         <v>966</v>
       </c>
       <c r="H357" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="I357" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.3">
@@ -13606,7 +13615,7 @@
         <v>362</v>
       </c>
       <c r="E358" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F358" t="s">
         <v>777</v>
@@ -13615,10 +13624,10 @@
         <v>1061</v>
       </c>
       <c r="H358" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="I358" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.3">
@@ -13632,7 +13641,7 @@
         <v>363</v>
       </c>
       <c r="E359" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F359" t="s">
         <v>778</v>
@@ -13641,10 +13650,10 @@
         <v>1062</v>
       </c>
       <c r="H359" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="I359" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.3">
@@ -13658,7 +13667,7 @@
         <v>364</v>
       </c>
       <c r="E360" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F360" t="s">
         <v>779</v>
@@ -13667,10 +13676,10 @@
         <v>1063</v>
       </c>
       <c r="H360" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="I360" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.3">
@@ -13684,7 +13693,7 @@
         <v>365</v>
       </c>
       <c r="E361" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F361" t="s">
         <v>780</v>
@@ -13693,10 +13702,10 @@
         <v>1064</v>
       </c>
       <c r="H361" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="I361" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.3">
@@ -13710,7 +13719,7 @@
         <v>366</v>
       </c>
       <c r="E362" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F362" t="s">
         <v>781</v>
@@ -13719,10 +13728,10 @@
         <v>835</v>
       </c>
       <c r="H362" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="I362" s="1" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.3">
@@ -13736,7 +13745,7 @@
         <v>367</v>
       </c>
       <c r="E363" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F363" t="s">
         <v>782</v>
@@ -13745,10 +13754,10 @@
         <v>836</v>
       </c>
       <c r="H363" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="I363" s="1" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.3">
@@ -13762,7 +13771,7 @@
         <v>368</v>
       </c>
       <c r="E364" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F364" t="s">
         <v>783</v>
@@ -13771,10 +13780,10 @@
         <v>835</v>
       </c>
       <c r="H364" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="I364" s="1" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.3">
@@ -13788,7 +13797,7 @@
         <v>369</v>
       </c>
       <c r="E365" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F365" t="s">
         <v>784</v>
@@ -13797,10 +13806,10 @@
         <v>836</v>
       </c>
       <c r="H365" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="I365" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.3">
@@ -13814,7 +13823,7 @@
         <v>370</v>
       </c>
       <c r="E366" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F366" t="s">
         <v>785</v>
@@ -13823,10 +13832,10 @@
         <v>836</v>
       </c>
       <c r="H366" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="I366" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.3">
@@ -13840,7 +13849,7 @@
         <v>371</v>
       </c>
       <c r="E367" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F367" t="s">
         <v>786</v>
@@ -13849,10 +13858,10 @@
         <v>835</v>
       </c>
       <c r="H367" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="I367" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="368" spans="1:9" x14ac:dyDescent="0.3">
@@ -13869,7 +13878,7 @@
         <v>372</v>
       </c>
       <c r="E368" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F368" t="s">
         <v>787</v>
@@ -13878,10 +13887,10 @@
         <v>1065</v>
       </c>
       <c r="H368" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="I368" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="369" spans="1:12" x14ac:dyDescent="0.3">
@@ -13898,7 +13907,7 @@
         <v>373</v>
       </c>
       <c r="E369" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F369" t="s">
         <v>788</v>
@@ -13907,10 +13916,10 @@
         <v>1066</v>
       </c>
       <c r="H369" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="I369" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="370" spans="1:12" x14ac:dyDescent="0.3">
@@ -13927,7 +13936,7 @@
         <v>374</v>
       </c>
       <c r="E370" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F370" t="s">
         <v>789</v>
@@ -13936,10 +13945,10 @@
         <v>1067</v>
       </c>
       <c r="H370" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="I370" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="371" spans="1:12" x14ac:dyDescent="0.3">
@@ -13956,7 +13965,7 @@
         <v>375</v>
       </c>
       <c r="E371" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F371" t="s">
         <v>790</v>
@@ -13965,10 +13974,10 @@
         <v>901</v>
       </c>
       <c r="H371" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="I371" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="372" spans="1:12" x14ac:dyDescent="0.3">
@@ -13982,7 +13991,7 @@
         <v>376</v>
       </c>
       <c r="E372" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F372" t="s">
         <v>791</v>
@@ -13991,10 +14000,10 @@
         <v>835</v>
       </c>
       <c r="H372" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="I372" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="373" spans="1:12" x14ac:dyDescent="0.3">
@@ -14008,7 +14017,7 @@
         <v>377</v>
       </c>
       <c r="E373" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F373" t="s">
         <v>792</v>
@@ -14017,10 +14026,10 @@
         <v>835</v>
       </c>
       <c r="H373" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="I373" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="374" spans="1:12" x14ac:dyDescent="0.3">
@@ -14034,7 +14043,7 @@
         <v>378</v>
       </c>
       <c r="E374" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F374" t="s">
         <v>793</v>
@@ -14043,10 +14052,10 @@
         <v>836</v>
       </c>
       <c r="H374" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="I374" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="375" spans="1:12" x14ac:dyDescent="0.3">
@@ -14060,7 +14069,7 @@
         <v>379</v>
       </c>
       <c r="E375" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F375" t="s">
         <v>794</v>
@@ -14069,10 +14078,10 @@
         <v>835</v>
       </c>
       <c r="H375" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="I375" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="376" spans="1:12" x14ac:dyDescent="0.3">
@@ -14086,7 +14095,7 @@
         <v>380</v>
       </c>
       <c r="E376" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F376" t="s">
         <v>795</v>
@@ -14095,10 +14104,10 @@
         <v>1068</v>
       </c>
       <c r="H376" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="I376" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="377" spans="1:12" x14ac:dyDescent="0.3">
@@ -14112,7 +14121,7 @@
         <v>381</v>
       </c>
       <c r="E377" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F377" t="s">
         <v>796</v>
@@ -14121,10 +14130,10 @@
         <v>853</v>
       </c>
       <c r="H377" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="I377" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="378" spans="1:12" x14ac:dyDescent="0.3">
@@ -14138,7 +14147,7 @@
         <v>382</v>
       </c>
       <c r="E378" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F378" t="s">
         <v>797</v>
@@ -14147,10 +14156,10 @@
         <v>1069</v>
       </c>
       <c r="H378" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="I378" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="379" spans="1:12" x14ac:dyDescent="0.3">
@@ -14164,7 +14173,7 @@
         <v>383</v>
       </c>
       <c r="E379" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F379" t="s">
         <v>798</v>
@@ -14173,10 +14182,10 @@
         <v>835</v>
       </c>
       <c r="H379" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="I379" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="380" spans="1:12" x14ac:dyDescent="0.3">
@@ -14190,7 +14199,7 @@
         <v>384</v>
       </c>
       <c r="E380" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F380" t="s">
         <v>799</v>
@@ -14199,10 +14208,10 @@
         <v>1001</v>
       </c>
       <c r="H380" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="I380" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="381" spans="1:12" x14ac:dyDescent="0.3">
@@ -14216,7 +14225,7 @@
         <v>385</v>
       </c>
       <c r="E381" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F381" t="s">
         <v>800</v>
@@ -14225,10 +14234,10 @@
         <v>835</v>
       </c>
       <c r="H381" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="I381" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="382" spans="1:12" x14ac:dyDescent="0.3">
@@ -14242,7 +14251,7 @@
         <v>386</v>
       </c>
       <c r="E382" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F382" t="s">
         <v>801</v>
@@ -14251,16 +14260,16 @@
         <v>1070</v>
       </c>
       <c r="H382" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="I382" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="K382" t="s">
         <v>1106</v>
       </c>
       <c r="L382" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="383" spans="1:12" x14ac:dyDescent="0.3">
@@ -14274,7 +14283,7 @@
         <v>387</v>
       </c>
       <c r="E383" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F383" t="s">
         <v>802</v>
@@ -14286,7 +14295,7 @@
         <v>1106</v>
       </c>
       <c r="I383" s="1" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="384" spans="1:12" x14ac:dyDescent="0.3">
@@ -14300,7 +14309,7 @@
         <v>388</v>
       </c>
       <c r="E384" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F384" t="s">
         <v>803</v>
@@ -14312,7 +14321,7 @@
         <v>1106</v>
       </c>
       <c r="I384" s="1" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="385" spans="1:14" x14ac:dyDescent="0.3">
@@ -14326,7 +14335,7 @@
         <v>389</v>
       </c>
       <c r="E385" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F385" t="s">
         <v>496</v>
@@ -14338,7 +14347,7 @@
         <v>1106</v>
       </c>
       <c r="I385" s="1" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="386" spans="1:14" x14ac:dyDescent="0.3">
@@ -14352,7 +14361,7 @@
         <v>390</v>
       </c>
       <c r="E386" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F386" t="s">
         <v>801</v>
@@ -14364,13 +14373,13 @@
         <v>1106</v>
       </c>
       <c r="I386" s="1" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
       <c r="K386" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="L386" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="387" spans="1:14" x14ac:dyDescent="0.3">
@@ -14384,7 +14393,7 @@
         <v>391</v>
       </c>
       <c r="E387" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F387" t="s">
         <v>804</v>
@@ -14393,10 +14402,10 @@
         <v>836</v>
       </c>
       <c r="H387" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="I387" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="388" spans="1:14" x14ac:dyDescent="0.3">
@@ -14410,7 +14419,7 @@
         <v>392</v>
       </c>
       <c r="E388" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F388" t="s">
         <v>805</v>
@@ -14419,13 +14428,13 @@
         <v>1071</v>
       </c>
       <c r="H388" t="s">
-        <v>1252</v>
+        <v>1245</v>
       </c>
       <c r="I388" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="J388" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="389" spans="1:14" x14ac:dyDescent="0.3">
@@ -14439,7 +14448,7 @@
         <v>393</v>
       </c>
       <c r="E389" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F389" t="s">
         <v>806</v>
@@ -14448,13 +14457,13 @@
         <v>1072</v>
       </c>
       <c r="H389" t="s">
-        <v>1252</v>
+        <v>1245</v>
       </c>
       <c r="I389" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="J389" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="390" spans="1:14" x14ac:dyDescent="0.3">
@@ -14468,7 +14477,7 @@
         <v>394</v>
       </c>
       <c r="E390" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F390" t="s">
         <v>807</v>
@@ -14477,13 +14486,13 @@
         <v>1073</v>
       </c>
       <c r="H390" t="s">
-        <v>1252</v>
+        <v>1245</v>
       </c>
       <c r="I390" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="J390" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="391" spans="1:14" x14ac:dyDescent="0.3">
@@ -14497,7 +14506,7 @@
         <v>395</v>
       </c>
       <c r="E391" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F391" t="s">
         <v>808</v>
@@ -14506,13 +14515,13 @@
         <v>1074</v>
       </c>
       <c r="H391" t="s">
-        <v>1252</v>
+        <v>1245</v>
       </c>
       <c r="I391" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="J391" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="392" spans="1:14" x14ac:dyDescent="0.3">
@@ -14526,7 +14535,7 @@
         <v>396</v>
       </c>
       <c r="E392" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F392" t="s">
         <v>809</v>
@@ -14535,13 +14544,13 @@
         <v>1075</v>
       </c>
       <c r="H392" t="s">
-        <v>1252</v>
+        <v>1245</v>
       </c>
       <c r="I392" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="J392" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="393" spans="1:14" x14ac:dyDescent="0.3">
@@ -14555,31 +14564,31 @@
         <v>397</v>
       </c>
       <c r="E393" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F393" t="s">
         <v>810</v>
       </c>
       <c r="H393" t="s">
-        <v>1252</v>
+        <v>1245</v>
       </c>
       <c r="I393" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="J393" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
       <c r="K393" t="s">
+        <v>1195</v>
+      </c>
+      <c r="L393" t="s">
+        <v>1236</v>
+      </c>
+      <c r="M393" t="s">
         <v>1196</v>
       </c>
-      <c r="L393" t="s">
-        <v>1242</v>
-      </c>
-      <c r="M393" t="s">
-        <v>1197</v>
-      </c>
       <c r="N393" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="394" spans="1:14" x14ac:dyDescent="0.3">
@@ -14593,7 +14602,7 @@
         <v>398</v>
       </c>
       <c r="E394" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F394" t="s">
         <v>811</v>
@@ -14602,10 +14611,10 @@
         <v>1076</v>
       </c>
       <c r="H394" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="I394" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="395" spans="1:14" x14ac:dyDescent="0.3">
@@ -14619,7 +14628,7 @@
         <v>399</v>
       </c>
       <c r="E395" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F395" t="s">
         <v>812</v>
@@ -14628,10 +14637,10 @@
         <v>897</v>
       </c>
       <c r="H395" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="I395" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="396" spans="1:14" x14ac:dyDescent="0.3">
@@ -14645,7 +14654,7 @@
         <v>400</v>
       </c>
       <c r="E396" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F396" t="s">
         <v>813</v>
@@ -14654,10 +14663,10 @@
         <v>1077</v>
       </c>
       <c r="H396" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="I396" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="397" spans="1:14" x14ac:dyDescent="0.3">
@@ -14671,7 +14680,7 @@
         <v>401</v>
       </c>
       <c r="E397" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F397" t="s">
         <v>814</v>
@@ -14680,10 +14689,10 @@
         <v>1078</v>
       </c>
       <c r="H397" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="I397" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="398" spans="1:14" x14ac:dyDescent="0.3">
@@ -14697,7 +14706,7 @@
         <v>402</v>
       </c>
       <c r="E398" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F398" t="s">
         <v>815</v>
@@ -14706,10 +14715,10 @@
         <v>1079</v>
       </c>
       <c r="H398" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="I398" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="399" spans="1:14" x14ac:dyDescent="0.3">
@@ -14723,7 +14732,7 @@
         <v>403</v>
       </c>
       <c r="E399" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F399" t="s">
         <v>808</v>
@@ -14732,10 +14741,10 @@
         <v>1080</v>
       </c>
       <c r="H399" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="I399" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="400" spans="1:14" x14ac:dyDescent="0.3">
@@ -14749,7 +14758,7 @@
         <v>404</v>
       </c>
       <c r="E400" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F400" t="s">
         <v>816</v>
@@ -14758,10 +14767,10 @@
         <v>836</v>
       </c>
       <c r="H400" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="I400" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="401" spans="1:14" x14ac:dyDescent="0.3">
@@ -14775,7 +14784,7 @@
         <v>405</v>
       </c>
       <c r="E401" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F401" t="s">
         <v>817</v>
@@ -14784,10 +14793,10 @@
         <v>836</v>
       </c>
       <c r="H401" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="I401" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="402" spans="1:14" x14ac:dyDescent="0.3">
@@ -14801,7 +14810,7 @@
         <v>406</v>
       </c>
       <c r="E402" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F402" t="s">
         <v>818</v>
@@ -14810,10 +14819,10 @@
         <v>836</v>
       </c>
       <c r="H402" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="I402" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="403" spans="1:14" x14ac:dyDescent="0.3">
@@ -14827,28 +14836,28 @@
         <v>407</v>
       </c>
       <c r="E403" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F403" t="s">
         <v>819</v>
       </c>
       <c r="H403" t="s">
+        <v>1195</v>
+      </c>
+      <c r="I403" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="K403" t="s">
+        <v>1245</v>
+      </c>
+      <c r="L403" t="s">
+        <v>1235</v>
+      </c>
+      <c r="M403" t="s">
         <v>1196</v>
       </c>
-      <c r="I403" s="1" t="s">
-        <v>1242</v>
-      </c>
-      <c r="K403" t="s">
-        <v>1252</v>
-      </c>
-      <c r="L403" t="s">
-        <v>1241</v>
-      </c>
-      <c r="M403" t="s">
-        <v>1197</v>
-      </c>
       <c r="N403" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="404" spans="1:14" x14ac:dyDescent="0.3">
@@ -14862,7 +14871,7 @@
         <v>408</v>
       </c>
       <c r="E404" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F404" t="s">
         <v>820</v>
@@ -14871,10 +14880,10 @@
         <v>1081</v>
       </c>
       <c r="H404" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="I404" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="405" spans="1:14" x14ac:dyDescent="0.3">
@@ -14888,28 +14897,28 @@
         <v>409</v>
       </c>
       <c r="E405" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F405" t="s">
         <v>819</v>
       </c>
       <c r="H405" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="I405" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
       <c r="K405" t="s">
-        <v>1252</v>
+        <v>1245</v>
       </c>
       <c r="L405" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="M405" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="N405" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="406" spans="1:14" x14ac:dyDescent="0.3">
@@ -14923,7 +14932,7 @@
         <v>410</v>
       </c>
       <c r="E406" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F406" t="s">
         <v>821</v>
@@ -14932,10 +14941,10 @@
         <v>1082</v>
       </c>
       <c r="H406" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="I406" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="407" spans="1:14" x14ac:dyDescent="0.3">
@@ -14949,7 +14958,7 @@
         <v>411</v>
       </c>
       <c r="E407" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F407" t="s">
         <v>822</v>
@@ -14958,10 +14967,10 @@
         <v>1083</v>
       </c>
       <c r="H407" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="I407" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="408" spans="1:14" x14ac:dyDescent="0.3">
@@ -14975,7 +14984,7 @@
         <v>412</v>
       </c>
       <c r="E408" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F408" t="s">
         <v>823</v>
@@ -14984,10 +14993,10 @@
         <v>1084</v>
       </c>
       <c r="H408" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="I408" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="409" spans="1:14" x14ac:dyDescent="0.3">
@@ -15001,7 +15010,7 @@
         <v>413</v>
       </c>
       <c r="E409" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F409" t="s">
         <v>824</v>
@@ -15010,10 +15019,10 @@
         <v>1085</v>
       </c>
       <c r="H409" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="I409" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="410" spans="1:14" x14ac:dyDescent="0.3">
@@ -15027,7 +15036,7 @@
         <v>414</v>
       </c>
       <c r="E410" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F410" t="s">
         <v>825</v>
@@ -15036,10 +15045,10 @@
         <v>835</v>
       </c>
       <c r="H410" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="I410" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="411" spans="1:14" x14ac:dyDescent="0.3">
@@ -15053,7 +15062,7 @@
         <v>415</v>
       </c>
       <c r="E411" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F411" t="s">
         <v>826</v>
@@ -15062,10 +15071,10 @@
         <v>835</v>
       </c>
       <c r="H411" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="I411" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="412" spans="1:14" x14ac:dyDescent="0.3">
@@ -15079,7 +15088,7 @@
         <v>416</v>
       </c>
       <c r="E412" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F412" t="s">
         <v>827</v>
@@ -15088,10 +15097,10 @@
         <v>835</v>
       </c>
       <c r="H412" t="s">
-        <v>1200</v>
+        <v>1258</v>
       </c>
       <c r="I412" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="413" spans="1:14" x14ac:dyDescent="0.3">
@@ -15105,7 +15114,7 @@
         <v>417</v>
       </c>
       <c r="E413" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F413" t="s">
         <v>828</v>
@@ -15114,10 +15123,10 @@
         <v>836</v>
       </c>
       <c r="H413" t="s">
-        <v>1200</v>
+        <v>1258</v>
       </c>
       <c r="I413" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="414" spans="1:14" x14ac:dyDescent="0.3">
@@ -15131,7 +15140,7 @@
         <v>418</v>
       </c>
       <c r="E414" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F414" t="s">
         <v>829</v>
@@ -15140,10 +15149,10 @@
         <v>836</v>
       </c>
       <c r="H414" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="I414" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="415" spans="1:14" x14ac:dyDescent="0.3">
@@ -15157,7 +15166,7 @@
         <v>419</v>
       </c>
       <c r="E415" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F415" t="s">
         <v>830</v>
@@ -15166,10 +15175,10 @@
         <v>1086</v>
       </c>
       <c r="H415" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="I415" s="1" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="416" spans="1:14" x14ac:dyDescent="0.3">
@@ -15183,7 +15192,7 @@
         <v>420</v>
       </c>
       <c r="E416" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F416" t="s">
         <v>831</v>
@@ -15192,10 +15201,10 @@
         <v>1087</v>
       </c>
       <c r="H416" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="I416" s="1" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="417" spans="1:9" x14ac:dyDescent="0.3">
@@ -15209,7 +15218,7 @@
         <v>421</v>
       </c>
       <c r="E417" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F417" t="s">
         <v>832</v>
@@ -15218,10 +15227,10 @@
         <v>835</v>
       </c>
       <c r="H417" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="I417" s="1" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="418" spans="1:9" x14ac:dyDescent="0.3">
@@ -15235,7 +15244,7 @@
         <v>422</v>
       </c>
       <c r="E418" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F418" t="s">
         <v>833</v>
@@ -15244,10 +15253,10 @@
         <v>1088</v>
       </c>
       <c r="H418" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="I418" s="1" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="419" spans="1:9" x14ac:dyDescent="0.3">
@@ -15261,7 +15270,7 @@
         <v>423</v>
       </c>
       <c r="E419" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F419" t="s">
         <v>834</v>
@@ -15270,10 +15279,10 @@
         <v>1089</v>
       </c>
       <c r="H419" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="I419" s="1" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
     </row>
   </sheetData>
